--- a/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_0_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_0_27.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3183.542458529207</v>
+        <v>4055002.537095817</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3183.542458529207</v>
+        <v>4055002.537095817</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98333.8862576439</v>
+        <v>6866397.935929357</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98333.8862576439</v>
+        <v>6866397.935929357</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1646729455.933804</v>
+        <v>59358165.61854965</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +685,7 @@
         <v>368.2460042948564</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3935447342857401</v>
+        <v>0.3935447342851259</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>6.982233028349953</v>
       </c>
       <c r="S2" t="n">
-        <v>406.3712460557003</v>
+        <v>406.371246055701</v>
       </c>
       <c r="T2" t="n">
         <v>569.6790825537603</v>
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D3" t="n">
         <v>347.9376868977026</v>
@@ -755,16 +755,16 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F3" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>418.2912050771884</v>
       </c>
       <c r="S3" t="n">
-        <v>427.97673816528</v>
+        <v>27.97673816528005</v>
       </c>
       <c r="T3" t="n">
-        <v>396.9842838494889</v>
+        <v>167.3273732433013</v>
       </c>
       <c r="U3" t="n">
         <v>400.0736870501537</v>
@@ -806,13 +806,13 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W3" t="n">
-        <v>150.4223174961238</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X3" t="n">
         <v>419.8627394453875</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="4">
@@ -916,7 +916,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>399.8746768730113</v>
+        <v>399.8746768730119</v>
       </c>
       <c r="H5" t="n">
         <v>368.2460042948564</v>
@@ -989,16 +989,16 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>254.6142326558667</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1034,22 +1034,22 @@
         <v>427.97673816528</v>
       </c>
       <c r="T6" t="n">
-        <v>396.9842838494889</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>400.0736870501537</v>
       </c>
       <c r="V6" t="n">
-        <v>127.5258538072457</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W6" t="n">
-        <v>432.3731429098285</v>
+        <v>32.37314290982852</v>
       </c>
       <c r="X6" t="n">
         <v>419.8627394453875</v>
       </c>
       <c r="Y6" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1223,7 +1223,7 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D9" t="n">
-        <v>347.9376868977026</v>
+        <v>60.95287351342834</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>400.0736870501537</v>
       </c>
       <c r="V9" t="n">
-        <v>127.5258538072457</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W9" t="n">
         <v>432.3731429098285</v>
@@ -1396,7 +1396,7 @@
         <v>368.2460042948564</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3935447342857401</v>
+        <v>0.3935447342859982</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y11" t="n">
-        <v>511.3174326828054</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="12">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.24169759512781</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1472,10 +1472,10 @@
         <v>323.662110682525</v>
       </c>
       <c r="H12" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W12" t="n">
-        <v>432.3731429098285</v>
+        <v>206.2827754893555</v>
       </c>
       <c r="X12" t="n">
         <v>419.8627394453875</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>86.11672794030834</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>368.2460042948564</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3935447342857401</v>
+        <v>0.3935447342859982</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C15" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>347.9376868977026</v>
       </c>
       <c r="E15" t="n">
-        <v>131.306391692914</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S15" t="n">
         <v>427.97673816528</v>
@@ -1757,7 +1757,7 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X15" t="n">
-        <v>419.8627394453875</v>
+        <v>151.3057412847197</v>
       </c>
       <c r="Y15" t="n">
         <v>399.3913927661343</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>86.11672794030834</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>406.371246055701</v>
       </c>
       <c r="T17" t="n">
-        <v>569.6790825537603</v>
+        <v>569.6790825537602</v>
       </c>
       <c r="U17" t="n">
         <v>648.9106809154903</v>
@@ -1928,16 +1928,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>384.5565566463266</v>
+        <v>182.8763842054194</v>
       </c>
       <c r="C18" t="n">
-        <v>276.4517849848955</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>418.2912050771884</v>
       </c>
       <c r="S18" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>396.9842838494889</v>
@@ -2025,16 +2025,16 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.982233028349856</v>
+        <v>6.982233028349953</v>
       </c>
       <c r="S20" t="n">
         <v>406.371246055701</v>
@@ -2165,28 +2165,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F21" t="n">
-        <v>25.2416975951277</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W21" t="n">
-        <v>432.3731429098285</v>
+        <v>163.8161447491606</v>
       </c>
       <c r="X21" t="n">
         <v>419.8627394453875</v>
@@ -2265,13 +2265,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2402,28 +2402,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>384.5565566463266</v>
+        <v>163.98934023483</v>
       </c>
       <c r="C24" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>347.9376868977026</v>
       </c>
       <c r="E24" t="n">
-        <v>113.0888736658791</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>427.97673816528</v>
       </c>
       <c r="T24" t="n">
-        <v>396.9842838494889</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V24" t="n">
         <v>414.5106671915202</v>
       </c>
       <c r="W24" t="n">
-        <v>432.3731429098285</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>419.8627394453875</v>
@@ -2499,16 +2499,16 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>6.982233028348955</v>
+        <v>6.982233028349953</v>
       </c>
       <c r="S26" t="n">
         <v>406.371246055701</v>
@@ -2648,7 +2648,7 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E27" t="n">
-        <v>113.0888736658791</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>396.9842838494889</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V27" t="n">
-        <v>414.5106671915202</v>
+        <v>217.2268994951617</v>
       </c>
       <c r="W27" t="n">
-        <v>432.3731429098285</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>419.8627394453875</v>
@@ -2736,16 +2736,16 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>86.11672794030834</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>361.0999124455193</v>
@@ -2885,10 +2885,10 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E30" t="n">
-        <v>113.0888736658791</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>396.9842838494889</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>158.0091879743289</v>
       </c>
       <c r="V30" t="n">
         <v>414.5106671915202</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>86.11672794030834</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F32" t="n">
-        <v>404.8896287080119</v>
+        <v>404.8896287080121</v>
       </c>
       <c r="G32" t="n">
         <v>399.8746768730119</v>
@@ -3116,22 +3116,22 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C33" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>60.95287351342834</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>418.2912050771884</v>
       </c>
       <c r="S33" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>396.9842838494889</v>
@@ -3179,10 +3179,10 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X33" t="n">
-        <v>419.8627394453875</v>
+        <v>351.2086727398651</v>
       </c>
       <c r="Y33" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>86.11672794030837</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3353,10 +3353,10 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C36" t="n">
-        <v>98.39067527642261</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>400.0736870501537</v>
       </c>
       <c r="V36" t="n">
-        <v>414.5106671915202</v>
+        <v>127.5258538072457</v>
       </c>
       <c r="W36" t="n">
         <v>432.3731429098285</v>
@@ -3447,16 +3447,16 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F38" t="n">
-        <v>404.8896287080119</v>
+        <v>404.8896287080121</v>
       </c>
       <c r="G38" t="n">
         <v>399.8746768730119</v>
@@ -3562,7 +3562,7 @@
         <v>406.371246055701</v>
       </c>
       <c r="T38" t="n">
-        <v>569.6790825537602</v>
+        <v>569.6790825537603</v>
       </c>
       <c r="U38" t="n">
         <v>648.9106809154903</v>
@@ -3587,13 +3587,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>337.346230948697</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3602,13 +3602,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>418.2912050771884</v>
       </c>
       <c r="S39" t="n">
-        <v>427.97673816528</v>
+        <v>140.9919247810054</v>
       </c>
       <c r="T39" t="n">
         <v>396.9842838494889</v>
@@ -3684,16 +3684,16 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>481.9993129555734</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C41" t="n">
         <v>449.4745782429939</v>
@@ -3760,7 +3760,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G41" t="n">
-        <v>399.8746768730119</v>
+        <v>399.8746768730122</v>
       </c>
       <c r="H41" t="n">
         <v>368.2460042948564</v>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>384.5565566463266</v>
+        <v>97.57174326205227</v>
       </c>
       <c r="C42" t="n">
         <v>361.0999124455193</v>
@@ -3833,19 +3833,19 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E42" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>325.0382590977293</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>396.9842838494889</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V42" t="n">
         <v>414.5106671915202</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X42" t="n">
         <v>419.8627394453875</v>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>86.11672794030834</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y44" t="n">
-        <v>511.3174326828054</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="45">
@@ -4067,10 +4067,10 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D45" t="n">
-        <v>347.9376868977026</v>
+        <v>118.30091502504</v>
       </c>
       <c r="E45" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>339.6362423378769</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,19 +4109,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T45" t="n">
-        <v>396.9842838494889</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V45" t="n">
-        <v>379.4546111865089</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W45" t="n">
         <v>432.3731429098285</v>
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>86.11672794030834</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4312,49 +4312,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2604.922907272605</v>
+        <v>2604.922907272604</v>
       </c>
       <c r="C2" t="n">
-        <v>2150.908181774631</v>
+        <v>2150.90818177463</v>
       </c>
       <c r="D2" t="n">
-        <v>1736.424186077813</v>
+        <v>1736.424186077812</v>
       </c>
       <c r="E2" t="n">
-        <v>1327.976418798148</v>
+        <v>1327.976418798147</v>
       </c>
       <c r="F2" t="n">
-        <v>918.9969958607618</v>
+        <v>918.9969958607611</v>
       </c>
       <c r="G2" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375167</v>
       </c>
       <c r="H2" t="n">
-        <v>143.117519933622</v>
+        <v>143.1175199336213</v>
       </c>
       <c r="I2" t="n">
         <v>142.72</v>
       </c>
       <c r="J2" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K2" t="n">
-        <v>1732.689961986976</v>
+        <v>2058.933492682376</v>
       </c>
       <c r="L2" t="n">
-        <v>2639.719456556598</v>
+        <v>3572.554259232019</v>
       </c>
       <c r="M2" t="n">
-        <v>3150.568285285533</v>
+        <v>4758.352755664085</v>
       </c>
       <c r="N2" t="n">
-        <v>4330.017307654221</v>
+        <v>4971.747346139668</v>
       </c>
       <c r="O2" t="n">
-        <v>5283.059851676177</v>
+        <v>5549.850547228262</v>
       </c>
       <c r="P2" t="n">
-        <v>6697.400904947332</v>
+        <v>6282.306354802172</v>
       </c>
       <c r="Q2" t="n">
         <v>7136</v>
@@ -4363,25 +4363,25 @@
         <v>7128.947239365303</v>
       </c>
       <c r="S2" t="n">
-        <v>6718.471233248434</v>
+        <v>6718.471233248433</v>
       </c>
       <c r="T2" t="n">
-        <v>6143.037816527464</v>
+        <v>6143.037816527463</v>
       </c>
       <c r="U2" t="n">
-        <v>5487.572482269393</v>
+        <v>5487.572482269392</v>
       </c>
       <c r="V2" t="n">
-        <v>4851.359326545328</v>
+        <v>4851.359326545327</v>
       </c>
       <c r="W2" t="n">
-        <v>4206.53763363528</v>
+        <v>4206.537633635279</v>
       </c>
       <c r="X2" t="n">
-        <v>3608.273155392181</v>
+        <v>3608.27315539218</v>
       </c>
       <c r="Y2" t="n">
-        <v>3091.790900157023</v>
+        <v>3091.790900157022</v>
       </c>
     </row>
     <row r="3">
@@ -4391,25 +4391,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1645.701374530418</v>
+        <v>1205.053026833469</v>
       </c>
       <c r="C3" t="n">
-        <v>1645.701374530418</v>
+        <v>840.305640524864</v>
       </c>
       <c r="D3" t="n">
-        <v>1294.249165542839</v>
+        <v>488.8534315372855</v>
       </c>
       <c r="E3" t="n">
-        <v>948.1157340055538</v>
+        <v>142.72</v>
       </c>
       <c r="F3" t="n">
-        <v>605.0488225531529</v>
+        <v>142.72</v>
       </c>
       <c r="G3" t="n">
-        <v>605.0488225531529</v>
+        <v>142.72</v>
       </c>
       <c r="H3" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="I3" t="n">
         <v>142.72</v>
@@ -4442,25 +4442,25 @@
         <v>3877.853327255624</v>
       </c>
       <c r="S3" t="n">
-        <v>3445.553591735139</v>
+        <v>3849.593995775543</v>
       </c>
       <c r="T3" t="n">
-        <v>3044.559365624544</v>
+        <v>3680.576447044935</v>
       </c>
       <c r="U3" t="n">
-        <v>2640.444530220348</v>
+        <v>3276.46161164074</v>
       </c>
       <c r="V3" t="n">
-        <v>2221.74688659255</v>
+        <v>2857.763968012941</v>
       </c>
       <c r="W3" t="n">
-        <v>2069.805151747981</v>
+        <v>2421.023419619175</v>
       </c>
       <c r="X3" t="n">
-        <v>1645.701374530418</v>
+        <v>1996.919642401612</v>
       </c>
       <c r="Y3" t="n">
-        <v>1645.701374530418</v>
+        <v>1593.49399314289</v>
       </c>
     </row>
     <row r="4">
@@ -4470,40 +4470,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="C4" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="D4" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="E4" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="F4" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="G4" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="H4" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="I4" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
       <c r="J4" t="n">
-        <v>652.9178883639495</v>
+        <v>325.5039603958979</v>
       </c>
       <c r="K4" t="n">
-        <v>652.9178883639495</v>
+        <v>325.5039603958979</v>
       </c>
       <c r="L4" t="n">
-        <v>652.9178883639495</v>
+        <v>558.5373481453365</v>
       </c>
       <c r="M4" t="n">
-        <v>652.9178883639495</v>
+        <v>558.5373481453365</v>
       </c>
       <c r="N4" t="n">
         <v>652.9178883639495</v>
@@ -4530,16 +4530,16 @@
         <v>142.72</v>
       </c>
       <c r="V4" t="n">
-        <v>341.5413928859459</v>
+        <v>142.72</v>
       </c>
       <c r="W4" t="n">
-        <v>513.4323111456233</v>
+        <v>142.72</v>
       </c>
       <c r="X4" t="n">
-        <v>513.4323111456233</v>
+        <v>142.72</v>
       </c>
       <c r="Y4" t="n">
-        <v>565.9312944848501</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="5">
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2604.922907272604</v>
+        <v>2604.922907272603</v>
       </c>
       <c r="C5" t="n">
         <v>2150.90818177463</v>
@@ -4561,10 +4561,10 @@
         <v>1327.976418798147</v>
       </c>
       <c r="F5" t="n">
-        <v>918.9969958607611</v>
+        <v>918.9969958607616</v>
       </c>
       <c r="G5" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375173</v>
       </c>
       <c r="H5" t="n">
         <v>143.117519933622</v>
@@ -4573,25 +4573,25 @@
         <v>142.72</v>
       </c>
       <c r="J5" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K5" t="n">
-        <v>1490.851027277097</v>
+        <v>1341.019793816059</v>
       </c>
       <c r="L5" t="n">
-        <v>2397.880521846719</v>
+        <v>2854.640560365703</v>
       </c>
       <c r="M5" t="n">
-        <v>3583.679018278785</v>
+        <v>2990.77072170294</v>
       </c>
       <c r="N5" t="n">
-        <v>4882.770397018268</v>
+        <v>4289.862100442423</v>
       </c>
       <c r="O5" t="n">
-        <v>5835.812941040225</v>
+        <v>4867.965301531017</v>
       </c>
       <c r="P5" t="n">
-        <v>6697.400904947332</v>
+        <v>6282.306354802172</v>
       </c>
       <c r="Q5" t="n">
         <v>7136</v>
@@ -4603,7 +4603,7 @@
         <v>6718.471233248433</v>
       </c>
       <c r="T5" t="n">
-        <v>6143.037816527463</v>
+        <v>6143.037816527462</v>
       </c>
       <c r="U5" t="n">
         <v>5487.572482269392</v>
@@ -4628,22 +4628,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>858.9195952961838</v>
+        <v>1777.496224822799</v>
       </c>
       <c r="C6" t="n">
-        <v>494.1722089875784</v>
+        <v>1412.748838514193</v>
       </c>
       <c r="D6" t="n">
-        <v>142.72</v>
+        <v>1061.296629526615</v>
       </c>
       <c r="E6" t="n">
-        <v>142.72</v>
+        <v>715.1631979893293</v>
       </c>
       <c r="F6" t="n">
-        <v>142.72</v>
+        <v>457.9771043975447</v>
       </c>
       <c r="G6" t="n">
-        <v>142.72</v>
+        <v>457.9771043975447</v>
       </c>
       <c r="H6" t="n">
         <v>142.72</v>
@@ -4682,22 +4682,22 @@
         <v>3445.553591735139</v>
       </c>
       <c r="T6" t="n">
-        <v>3044.559365624544</v>
+        <v>3445.553591735139</v>
       </c>
       <c r="U6" t="n">
-        <v>2640.444530220348</v>
+        <v>3041.438756330943</v>
       </c>
       <c r="V6" t="n">
-        <v>2511.630536475656</v>
+        <v>2622.741112703145</v>
       </c>
       <c r="W6" t="n">
-        <v>2074.889988081889</v>
+        <v>2590.040968349783</v>
       </c>
       <c r="X6" t="n">
-        <v>1650.786210864326</v>
+        <v>2165.93719113222</v>
       </c>
       <c r="Y6" t="n">
-        <v>1247.360561605605</v>
+        <v>2165.93719113222</v>
       </c>
     </row>
     <row r="7">
@@ -4707,43 +4707,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>255.2430256197882</v>
+        <v>142.72</v>
       </c>
       <c r="C7" t="n">
-        <v>255.2430256197882</v>
+        <v>142.72</v>
       </c>
       <c r="D7" t="n">
-        <v>255.2430256197882</v>
+        <v>142.72</v>
       </c>
       <c r="E7" t="n">
-        <v>255.2430256197882</v>
+        <v>142.72</v>
       </c>
       <c r="F7" t="n">
-        <v>255.2430256197882</v>
+        <v>142.72</v>
       </c>
       <c r="G7" t="n">
-        <v>255.2430256197882</v>
+        <v>142.72</v>
       </c>
       <c r="H7" t="n">
-        <v>255.2430256197882</v>
+        <v>142.72</v>
       </c>
       <c r="I7" t="n">
-        <v>255.2430256197882</v>
+        <v>155.1919361348965</v>
       </c>
       <c r="J7" t="n">
-        <v>342.2296194988875</v>
+        <v>242.1785300139958</v>
       </c>
       <c r="K7" t="n">
-        <v>652.9178883639495</v>
+        <v>552.8667988790578</v>
       </c>
       <c r="L7" t="n">
-        <v>652.9178883639495</v>
+        <v>552.8667988790578</v>
       </c>
       <c r="M7" t="n">
-        <v>652.9178883639495</v>
+        <v>552.8667988790578</v>
       </c>
       <c r="N7" t="n">
-        <v>652.9178883639495</v>
+        <v>647.2473390976708</v>
       </c>
       <c r="O7" t="n">
         <v>652.9178883639495</v>
@@ -4776,7 +4776,7 @@
         <v>142.72</v>
       </c>
       <c r="Y7" t="n">
-        <v>143.485687953496</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="8">
@@ -4789,19 +4789,19 @@
         <v>2604.922907272605</v>
       </c>
       <c r="C8" t="n">
-        <v>2150.908181774631</v>
+        <v>2150.908181774632</v>
       </c>
       <c r="D8" t="n">
-        <v>1736.424186077813</v>
+        <v>1736.424186077814</v>
       </c>
       <c r="E8" t="n">
-        <v>1327.976418798148</v>
+        <v>1327.976418798149</v>
       </c>
       <c r="F8" t="n">
-        <v>918.9969958607618</v>
+        <v>918.9969958607638</v>
       </c>
       <c r="G8" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375187</v>
       </c>
       <c r="H8" t="n">
         <v>143.117519933622</v>
@@ -4810,52 +4810,52 @@
         <v>142.72</v>
       </c>
       <c r="J8" t="n">
-        <v>534.0291130376557</v>
+        <v>142.72</v>
       </c>
       <c r="K8" t="n">
-        <v>1243.735479385524</v>
+        <v>1197.478840515727</v>
       </c>
       <c r="L8" t="n">
-        <v>2150.764973955147</v>
+        <v>1197.478840515727</v>
       </c>
       <c r="M8" t="n">
-        <v>2661.613802684082</v>
+        <v>2383.277336947793</v>
       </c>
       <c r="N8" t="n">
-        <v>3914.922757509061</v>
+        <v>3682.368715687277</v>
       </c>
       <c r="O8" t="n">
-        <v>4867.965301531018</v>
+        <v>5283.059851676178</v>
       </c>
       <c r="P8" t="n">
-        <v>6282.306354802173</v>
+        <v>6697.400904947333</v>
       </c>
       <c r="Q8" t="n">
         <v>7136</v>
       </c>
       <c r="R8" t="n">
-        <v>7128.947239365304</v>
+        <v>7128.947239365305</v>
       </c>
       <c r="S8" t="n">
-        <v>6718.471233248434</v>
+        <v>6718.471233248435</v>
       </c>
       <c r="T8" t="n">
-        <v>6143.037816527464</v>
+        <v>6143.037816527465</v>
       </c>
       <c r="U8" t="n">
-        <v>5487.572482269393</v>
+        <v>5487.572482269394</v>
       </c>
       <c r="V8" t="n">
-        <v>4851.359326545328</v>
+        <v>4851.359326545329</v>
       </c>
       <c r="W8" t="n">
-        <v>4206.53763363528</v>
+        <v>4206.537633635281</v>
       </c>
       <c r="X8" t="n">
-        <v>3608.273155392181</v>
+        <v>3608.273155392182</v>
       </c>
       <c r="Y8" t="n">
-        <v>3091.790900157023</v>
+        <v>3091.790900157024</v>
       </c>
     </row>
     <row r="9">
@@ -4865,10 +4865,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>858.9195952961838</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="C9" t="n">
-        <v>494.1722089875784</v>
+        <v>204.2885591044731</v>
       </c>
       <c r="D9" t="n">
         <v>142.72</v>
@@ -4925,16 +4925,16 @@
         <v>2640.444530220348</v>
       </c>
       <c r="V9" t="n">
-        <v>2511.630536475656</v>
+        <v>2221.74688659255</v>
       </c>
       <c r="W9" t="n">
-        <v>2074.889988081889</v>
+        <v>1785.006338198784</v>
       </c>
       <c r="X9" t="n">
-        <v>1650.786210864326</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="Y9" t="n">
-        <v>1247.360561605605</v>
+        <v>957.4769117224993</v>
       </c>
     </row>
     <row r="10">
@@ -4968,19 +4968,19 @@
         <v>142.72</v>
       </c>
       <c r="J10" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="K10" t="n">
-        <v>419.8845006145109</v>
+        <v>402.0116649291751</v>
       </c>
       <c r="L10" t="n">
-        <v>652.9178883639495</v>
+        <v>402.0116649291751</v>
       </c>
       <c r="M10" t="n">
-        <v>652.9178883639495</v>
+        <v>552.8667988790578</v>
       </c>
       <c r="N10" t="n">
-        <v>652.9178883639495</v>
+        <v>647.2473390976708</v>
       </c>
       <c r="O10" t="n">
         <v>652.9178883639495</v>
@@ -5035,61 +5035,61 @@
         <v>1327.976418798148</v>
       </c>
       <c r="F11" t="n">
-        <v>918.9969958607618</v>
+        <v>918.996995860762</v>
       </c>
       <c r="G11" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375176</v>
       </c>
       <c r="H11" t="n">
-        <v>143.117519933622</v>
+        <v>143.1175199336222</v>
       </c>
       <c r="I11" t="n">
         <v>142.72</v>
       </c>
       <c r="J11" t="n">
-        <v>860.2726437330556</v>
+        <v>142.72</v>
       </c>
       <c r="K11" t="n">
-        <v>1569.979010080924</v>
+        <v>1341.38084894932</v>
       </c>
       <c r="L11" t="n">
-        <v>2477.008504650546</v>
+        <v>2657.735639404691</v>
       </c>
       <c r="M11" t="n">
-        <v>3662.807001082612</v>
+        <v>3168.584468133626</v>
       </c>
       <c r="N11" t="n">
-        <v>4276.027320857375</v>
+        <v>4467.67584687311</v>
       </c>
       <c r="O11" t="n">
-        <v>5229.069864879331</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P11" t="n">
-        <v>6282.306354802172</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q11" t="n">
         <v>7136</v>
       </c>
       <c r="R11" t="n">
-        <v>7128.947239365303</v>
+        <v>7128.947239365304</v>
       </c>
       <c r="S11" t="n">
-        <v>6718.471233248433</v>
+        <v>6718.471233248434</v>
       </c>
       <c r="T11" t="n">
-        <v>6143.037816527463</v>
+        <v>6143.037816527464</v>
       </c>
       <c r="U11" t="n">
-        <v>5487.572482269392</v>
+        <v>5487.572482269393</v>
       </c>
       <c r="V11" t="n">
-        <v>4851.359326545327</v>
+        <v>4851.359326545328</v>
       </c>
       <c r="W11" t="n">
-        <v>4206.537633635279</v>
+        <v>4206.53763363528</v>
       </c>
       <c r="X11" t="n">
-        <v>3608.27315539218</v>
+        <v>3608.273155392181</v>
       </c>
       <c r="Y11" t="n">
         <v>3091.790900157023</v>
@@ -5102,25 +5102,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.9802474849964</v>
+        <v>1185.851020228027</v>
       </c>
       <c r="C12" t="n">
-        <v>931.9802474849964</v>
+        <v>821.103633919422</v>
       </c>
       <c r="D12" t="n">
-        <v>931.9802474849964</v>
+        <v>469.6514249318435</v>
       </c>
       <c r="E12" t="n">
-        <v>931.9802474849964</v>
+        <v>469.6514249318435</v>
       </c>
       <c r="F12" t="n">
-        <v>931.9802474849964</v>
+        <v>469.6514249318435</v>
       </c>
       <c r="G12" t="n">
-        <v>605.0488225531529</v>
+        <v>142.72</v>
       </c>
       <c r="H12" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="I12" t="n">
         <v>142.72</v>
@@ -5165,13 +5165,13 @@
         <v>2221.74688659255</v>
       </c>
       <c r="W12" t="n">
-        <v>1785.006338198784</v>
+        <v>2013.380446704312</v>
       </c>
       <c r="X12" t="n">
-        <v>1360.902560981221</v>
+        <v>1589.276669486749</v>
       </c>
       <c r="Y12" t="n">
-        <v>957.4769117224993</v>
+        <v>1185.851020228027</v>
       </c>
     </row>
     <row r="13">
@@ -5205,43 +5205,43 @@
         <v>142.72</v>
       </c>
       <c r="J13" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="K13" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="L13" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="M13" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="N13" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="O13" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="P13" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="R13" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="S13" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="T13" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="U13" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="V13" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="W13" t="n">
         <v>142.72</v>
@@ -5260,76 +5260,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2604.922907272603</v>
+        <v>2604.922907272605</v>
       </c>
       <c r="C14" t="n">
-        <v>2150.90818177463</v>
+        <v>2150.908181774631</v>
       </c>
       <c r="D14" t="n">
-        <v>1736.424186077812</v>
+        <v>1736.424186077813</v>
       </c>
       <c r="E14" t="n">
-        <v>1327.976418798147</v>
+        <v>1327.976418798148</v>
       </c>
       <c r="F14" t="n">
-        <v>918.9969958607616</v>
+        <v>918.996995860762</v>
       </c>
       <c r="G14" t="n">
-        <v>515.0831808375173</v>
+        <v>515.0831808375176</v>
       </c>
       <c r="H14" t="n">
-        <v>143.117519933622</v>
+        <v>143.1175199336222</v>
       </c>
       <c r="I14" t="n">
         <v>142.72</v>
       </c>
       <c r="J14" t="n">
-        <v>534.0291130376557</v>
+        <v>434.2709545127605</v>
       </c>
       <c r="K14" t="n">
-        <v>1243.735479385524</v>
+        <v>1632.931803462081</v>
       </c>
       <c r="L14" t="n">
-        <v>2150.764973955147</v>
+        <v>2539.961298031703</v>
       </c>
       <c r="M14" t="n">
-        <v>2661.613802684082</v>
+        <v>3050.810126760638</v>
       </c>
       <c r="N14" t="n">
-        <v>3960.705181423565</v>
+        <v>4349.901505500122</v>
       </c>
       <c r="O14" t="n">
-        <v>5561.396317412467</v>
+        <v>5950.592641489024</v>
       </c>
       <c r="P14" t="n">
-        <v>6697.400904947332</v>
+        <v>6812.180605396131</v>
       </c>
       <c r="Q14" t="n">
         <v>7136</v>
       </c>
       <c r="R14" t="n">
-        <v>7128.947239365303</v>
+        <v>7128.947239365304</v>
       </c>
       <c r="S14" t="n">
-        <v>6718.471233248433</v>
+        <v>6718.471233248434</v>
       </c>
       <c r="T14" t="n">
-        <v>6143.037816527462</v>
+        <v>6143.037816527464</v>
       </c>
       <c r="U14" t="n">
-        <v>5487.572482269392</v>
+        <v>5487.572482269393</v>
       </c>
       <c r="V14" t="n">
-        <v>4851.359326545327</v>
+        <v>4851.359326545328</v>
       </c>
       <c r="W14" t="n">
-        <v>4206.537633635279</v>
+        <v>4206.53763363528</v>
       </c>
       <c r="X14" t="n">
-        <v>3608.27315539218</v>
+        <v>3608.273155392181</v>
       </c>
       <c r="Y14" t="n">
-        <v>3091.790900157022</v>
+        <v>3091.790900157023</v>
       </c>
     </row>
     <row r="15">
@@ -5339,13 +5339,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>991.5523141779152</v>
+        <v>840.305640524864</v>
       </c>
       <c r="C15" t="n">
-        <v>626.8049278693097</v>
+        <v>840.305640524864</v>
       </c>
       <c r="D15" t="n">
-        <v>275.3527188817313</v>
+        <v>488.8534315372855</v>
       </c>
       <c r="E15" t="n">
         <v>142.72</v>
@@ -5387,28 +5387,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R15" t="n">
-        <v>4300.369696020461</v>
+        <v>3877.853327255624</v>
       </c>
       <c r="S15" t="n">
-        <v>3868.069960499976</v>
+        <v>3445.553591735139</v>
       </c>
       <c r="T15" t="n">
-        <v>3467.075734389381</v>
+        <v>3044.559365624544</v>
       </c>
       <c r="U15" t="n">
-        <v>3062.960898985185</v>
+        <v>2640.444530220348</v>
       </c>
       <c r="V15" t="n">
-        <v>2644.263255357387</v>
+        <v>2221.74688659255</v>
       </c>
       <c r="W15" t="n">
-        <v>2207.522706963621</v>
+        <v>1785.006338198784</v>
       </c>
       <c r="X15" t="n">
-        <v>1783.418929746058</v>
+        <v>1632.172256093007</v>
       </c>
       <c r="Y15" t="n">
-        <v>1379.993280487336</v>
+        <v>1228.746606834285</v>
       </c>
     </row>
     <row r="16">
@@ -5442,40 +5442,40 @@
         <v>142.72</v>
       </c>
       <c r="J16" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="K16" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="L16" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="M16" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="N16" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="O16" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="P16" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="Q16" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="R16" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="S16" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="T16" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="U16" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="V16" t="n">
         <v>142.72</v>
@@ -5500,19 +5500,19 @@
         <v>2604.922907272605</v>
       </c>
       <c r="C17" t="n">
-        <v>2150.908181774632</v>
+        <v>2150.908181774631</v>
       </c>
       <c r="D17" t="n">
-        <v>1736.424186077814</v>
+        <v>1736.424186077813</v>
       </c>
       <c r="E17" t="n">
-        <v>1327.976418798149</v>
+        <v>1327.976418798148</v>
       </c>
       <c r="F17" t="n">
-        <v>918.9969958607638</v>
+        <v>918.9969958607618</v>
       </c>
       <c r="G17" t="n">
-        <v>515.0831808375187</v>
+        <v>515.0831808375174</v>
       </c>
       <c r="H17" t="n">
         <v>143.117519933622</v>
@@ -5521,22 +5521,22 @@
         <v>142.72</v>
       </c>
       <c r="J17" t="n">
-        <v>534.0291130376557</v>
+        <v>578.0252160184522</v>
       </c>
       <c r="K17" t="n">
-        <v>1570.130814261798</v>
+        <v>1776.686064967772</v>
       </c>
       <c r="L17" t="n">
-        <v>3083.751580811441</v>
+        <v>2383.277336947793</v>
       </c>
       <c r="M17" t="n">
-        <v>4269.550077243507</v>
+        <v>2383.277336947793</v>
       </c>
       <c r="N17" t="n">
-        <v>4882.77039701827</v>
+        <v>3682.368715687277</v>
       </c>
       <c r="O17" t="n">
-        <v>5835.812941040226</v>
+        <v>5283.059851676178</v>
       </c>
       <c r="P17" t="n">
         <v>6697.400904947333</v>
@@ -5545,28 +5545,28 @@
         <v>7136</v>
       </c>
       <c r="R17" t="n">
-        <v>7128.947239365305</v>
+        <v>7128.947239365304</v>
       </c>
       <c r="S17" t="n">
-        <v>6718.471233248435</v>
+        <v>6718.471233248434</v>
       </c>
       <c r="T17" t="n">
-        <v>6143.037816527465</v>
+        <v>6143.037816527464</v>
       </c>
       <c r="U17" t="n">
-        <v>5487.572482269394</v>
+        <v>5487.572482269393</v>
       </c>
       <c r="V17" t="n">
-        <v>4851.359326545329</v>
+        <v>4851.359326545328</v>
       </c>
       <c r="W17" t="n">
-        <v>4206.537633635281</v>
+        <v>4206.53763363528</v>
       </c>
       <c r="X17" t="n">
-        <v>3608.273155392182</v>
+        <v>3608.273155392181</v>
       </c>
       <c r="Y17" t="n">
-        <v>3091.790900157024</v>
+        <v>3091.790900157023</v>
       </c>
     </row>
     <row r="18">
@@ -5576,25 +5576,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>569.0359454130785</v>
+        <v>1205.053026833469</v>
       </c>
       <c r="C18" t="n">
-        <v>289.7917181556082</v>
+        <v>840.305640524864</v>
       </c>
       <c r="D18" t="n">
-        <v>289.7917181556082</v>
+        <v>488.8534315372855</v>
       </c>
       <c r="E18" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="F18" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="G18" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="H18" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="I18" t="n">
         <v>142.72</v>
@@ -5627,25 +5627,25 @@
         <v>3877.853327255624</v>
       </c>
       <c r="S18" t="n">
-        <v>3445.553591735139</v>
+        <v>3877.853327255624</v>
       </c>
       <c r="T18" t="n">
-        <v>3044.559365624544</v>
+        <v>3476.859101145029</v>
       </c>
       <c r="U18" t="n">
-        <v>2640.444530220348</v>
+        <v>3072.744265740833</v>
       </c>
       <c r="V18" t="n">
-        <v>2221.74688659255</v>
+        <v>2654.046622113035</v>
       </c>
       <c r="W18" t="n">
-        <v>1785.006338198784</v>
+        <v>2217.306073719269</v>
       </c>
       <c r="X18" t="n">
-        <v>1360.902560981221</v>
+        <v>1793.202296501705</v>
       </c>
       <c r="Y18" t="n">
-        <v>957.4769117224993</v>
+        <v>1389.776647242984</v>
       </c>
     </row>
     <row r="19">
@@ -5655,22 +5655,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="C19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="D19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="E19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="F19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="G19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="H19" t="n">
         <v>142.72</v>
@@ -5682,49 +5682,49 @@
         <v>229.7065938790994</v>
       </c>
       <c r="K19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="L19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="M19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="N19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="O19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="P19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Q19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="R19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="S19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="T19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="U19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="V19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="W19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="X19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Y19" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="20">
@@ -5758,19 +5758,19 @@
         <v>142.72</v>
       </c>
       <c r="J20" t="n">
-        <v>534.0291130376557</v>
+        <v>142.72</v>
       </c>
       <c r="K20" t="n">
-        <v>1243.735479385524</v>
+        <v>1341.38084894932</v>
       </c>
       <c r="L20" t="n">
-        <v>2150.764973955147</v>
+        <v>2248.410343518942</v>
       </c>
       <c r="M20" t="n">
-        <v>2990.770721702941</v>
+        <v>3301.702437734298</v>
       </c>
       <c r="N20" t="n">
-        <v>4289.862100442424</v>
+        <v>3914.922757509061</v>
       </c>
       <c r="O20" t="n">
         <v>4867.965301531018</v>
@@ -5813,25 +5813,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>957.4769117224993</v>
+        <v>840.305640524864</v>
       </c>
       <c r="C21" t="n">
-        <v>957.4769117224993</v>
+        <v>840.305640524864</v>
       </c>
       <c r="D21" t="n">
-        <v>957.4769117224993</v>
+        <v>488.8534315372855</v>
       </c>
       <c r="E21" t="n">
-        <v>957.4769117224993</v>
+        <v>142.72</v>
       </c>
       <c r="F21" t="n">
-        <v>931.9802474849965</v>
+        <v>142.72</v>
       </c>
       <c r="G21" t="n">
-        <v>605.0488225531531</v>
+        <v>142.72</v>
       </c>
       <c r="H21" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="I21" t="n">
         <v>142.72</v>
@@ -5876,13 +5876,13 @@
         <v>2221.74688659255</v>
       </c>
       <c r="W21" t="n">
-        <v>1785.006338198784</v>
+        <v>2056.27603331057</v>
       </c>
       <c r="X21" t="n">
-        <v>1360.902560981221</v>
+        <v>1632.172256093007</v>
       </c>
       <c r="Y21" t="n">
-        <v>957.4769117224993</v>
+        <v>1228.746606834285</v>
       </c>
     </row>
     <row r="22">
@@ -5892,25 +5892,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="C22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="D22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="E22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="F22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="G22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="H22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="I22" t="n">
         <v>142.72</v>
@@ -5919,49 +5919,49 @@
         <v>229.7065938790994</v>
       </c>
       <c r="K22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="L22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="M22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="N22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="O22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="P22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="R22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="S22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="T22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="U22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="V22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="W22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="X22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Y22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="23">
@@ -5974,19 +5974,19 @@
         <v>2604.922907272605</v>
       </c>
       <c r="C23" t="n">
-        <v>2150.908181774631</v>
+        <v>2150.908181774632</v>
       </c>
       <c r="D23" t="n">
-        <v>1736.424186077813</v>
+        <v>1736.424186077814</v>
       </c>
       <c r="E23" t="n">
-        <v>1327.976418798148</v>
+        <v>1327.976418798149</v>
       </c>
       <c r="F23" t="n">
-        <v>918.9969958607618</v>
+        <v>918.9969958607638</v>
       </c>
       <c r="G23" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375187</v>
       </c>
       <c r="H23" t="n">
         <v>143.117519933622</v>
@@ -5995,52 +5995,52 @@
         <v>142.72</v>
       </c>
       <c r="J23" t="n">
-        <v>534.0291130376557</v>
+        <v>142.72</v>
       </c>
       <c r="K23" t="n">
-        <v>534.0291130376557</v>
+        <v>852.4263663478685</v>
       </c>
       <c r="L23" t="n">
-        <v>1441.058607607278</v>
+        <v>2366.047132897512</v>
       </c>
       <c r="M23" t="n">
-        <v>1968.182786802633</v>
+        <v>3551.845629329578</v>
       </c>
       <c r="N23" t="n">
-        <v>3267.274165542116</v>
+        <v>4704.956650587585</v>
       </c>
       <c r="O23" t="n">
-        <v>4867.965301531018</v>
+        <v>5283.059851676178</v>
       </c>
       <c r="P23" t="n">
-        <v>6282.306354802173</v>
+        <v>6697.400904947333</v>
       </c>
       <c r="Q23" t="n">
         <v>7136</v>
       </c>
       <c r="R23" t="n">
-        <v>7128.947239365304</v>
+        <v>7128.947239365305</v>
       </c>
       <c r="S23" t="n">
-        <v>6718.471233248434</v>
+        <v>6718.471233248435</v>
       </c>
       <c r="T23" t="n">
-        <v>6143.037816527464</v>
+        <v>6143.037816527465</v>
       </c>
       <c r="U23" t="n">
-        <v>5487.572482269393</v>
+        <v>5487.572482269394</v>
       </c>
       <c r="V23" t="n">
-        <v>4851.359326545328</v>
+        <v>4851.359326545329</v>
       </c>
       <c r="W23" t="n">
-        <v>4206.53763363528</v>
+        <v>4206.537633635281</v>
       </c>
       <c r="X23" t="n">
-        <v>3608.273155392181</v>
+        <v>3608.273155392182</v>
       </c>
       <c r="Y23" t="n">
-        <v>3091.790900157023</v>
+        <v>3091.790900157024</v>
       </c>
     </row>
     <row r="24">
@@ -6050,25 +6050,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>973.1507808172739</v>
+        <v>1629.56588800986</v>
       </c>
       <c r="C24" t="n">
-        <v>608.4033945086685</v>
+        <v>1629.56588800986</v>
       </c>
       <c r="D24" t="n">
-        <v>256.9511855210901</v>
+        <v>1278.113679022282</v>
       </c>
       <c r="E24" t="n">
-        <v>142.72</v>
+        <v>931.9802474849965</v>
       </c>
       <c r="F24" t="n">
-        <v>142.72</v>
+        <v>931.9802474849965</v>
       </c>
       <c r="G24" t="n">
-        <v>142.72</v>
+        <v>605.0488225531531</v>
       </c>
       <c r="H24" t="n">
-        <v>142.72</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="I24" t="n">
         <v>142.72</v>
@@ -6104,22 +6104,22 @@
         <v>3445.553591735139</v>
       </c>
       <c r="T24" t="n">
-        <v>3044.559365624544</v>
+        <v>3445.553591735139</v>
       </c>
       <c r="U24" t="n">
-        <v>3044.559365624544</v>
+        <v>3041.438756330943</v>
       </c>
       <c r="V24" t="n">
-        <v>2625.861721996746</v>
+        <v>2622.741112703145</v>
       </c>
       <c r="W24" t="n">
-        <v>2189.12117360298</v>
+        <v>2622.741112703145</v>
       </c>
       <c r="X24" t="n">
-        <v>1765.017396385416</v>
+        <v>2198.637335485582</v>
       </c>
       <c r="Y24" t="n">
-        <v>1361.591747126695</v>
+        <v>1795.21168622686</v>
       </c>
     </row>
     <row r="25">
@@ -6129,22 +6129,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="C25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="D25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="E25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="F25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="H25" t="n">
         <v>142.72</v>
@@ -6156,49 +6156,49 @@
         <v>229.7065938790994</v>
       </c>
       <c r="K25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="L25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="M25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="N25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="O25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="P25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Q25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="R25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="S25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="T25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="U25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="V25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="W25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="X25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Y25" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2604.922907272605</v>
+        <v>2604.922907272603</v>
       </c>
       <c r="C26" t="n">
-        <v>2150.908181774631</v>
+        <v>2150.90818177463</v>
       </c>
       <c r="D26" t="n">
-        <v>1736.424186077813</v>
+        <v>1736.424186077812</v>
       </c>
       <c r="E26" t="n">
-        <v>1327.976418798148</v>
+        <v>1327.976418798147</v>
       </c>
       <c r="F26" t="n">
-        <v>918.9969958607618</v>
+        <v>918.996995860762</v>
       </c>
       <c r="G26" t="n">
         <v>515.0831808375174</v>
@@ -6232,52 +6232,52 @@
         <v>142.72</v>
       </c>
       <c r="J26" t="n">
-        <v>860.2726437330556</v>
+        <v>534.0291130376557</v>
       </c>
       <c r="K26" t="n">
-        <v>860.2726437330556</v>
+        <v>534.0291130376557</v>
       </c>
       <c r="L26" t="n">
-        <v>1767.302138302678</v>
+        <v>1441.058607607278</v>
       </c>
       <c r="M26" t="n">
-        <v>2953.100634734744</v>
+        <v>1968.182786802632</v>
       </c>
       <c r="N26" t="n">
-        <v>4252.192013474227</v>
+        <v>3267.274165542115</v>
       </c>
       <c r="O26" t="n">
-        <v>5835.812941040225</v>
+        <v>4867.965301531017</v>
       </c>
       <c r="P26" t="n">
-        <v>6697.400904947332</v>
+        <v>6282.306354802172</v>
       </c>
       <c r="Q26" t="n">
         <v>7136</v>
       </c>
       <c r="R26" t="n">
-        <v>7128.947239365304</v>
+        <v>7128.947239365303</v>
       </c>
       <c r="S26" t="n">
-        <v>6718.471233248434</v>
+        <v>6718.471233248433</v>
       </c>
       <c r="T26" t="n">
-        <v>6143.037816527464</v>
+        <v>6143.037816527463</v>
       </c>
       <c r="U26" t="n">
-        <v>5487.572482269393</v>
+        <v>5487.572482269392</v>
       </c>
       <c r="V26" t="n">
-        <v>4851.359326545328</v>
+        <v>4851.359326545327</v>
       </c>
       <c r="W26" t="n">
-        <v>4206.53763363528</v>
+        <v>4206.537633635279</v>
       </c>
       <c r="X26" t="n">
-        <v>3608.273155392181</v>
+        <v>3608.27315539218</v>
       </c>
       <c r="Y26" t="n">
-        <v>3091.790900157023</v>
+        <v>3091.790900157022</v>
       </c>
     </row>
     <row r="27">
@@ -6287,13 +6287,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>973.1507808172739</v>
+        <v>1205.053026833469</v>
       </c>
       <c r="C27" t="n">
-        <v>608.4033945086685</v>
+        <v>840.305640524864</v>
       </c>
       <c r="D27" t="n">
-        <v>256.9511855210901</v>
+        <v>488.8534315372855</v>
       </c>
       <c r="E27" t="n">
         <v>142.72</v>
@@ -6344,19 +6344,19 @@
         <v>3044.559365624544</v>
       </c>
       <c r="U27" t="n">
-        <v>3044.559365624544</v>
+        <v>2640.444530220348</v>
       </c>
       <c r="V27" t="n">
-        <v>2625.861721996746</v>
+        <v>2421.023419619175</v>
       </c>
       <c r="W27" t="n">
-        <v>2189.12117360298</v>
+        <v>2421.023419619175</v>
       </c>
       <c r="X27" t="n">
-        <v>1765.017396385416</v>
+        <v>1996.919642401612</v>
       </c>
       <c r="Y27" t="n">
-        <v>1361.591747126695</v>
+        <v>1593.49399314289</v>
       </c>
     </row>
     <row r="28">
@@ -6366,22 +6366,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="C28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="D28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="E28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="F28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="H28" t="n">
         <v>142.72</v>
@@ -6393,49 +6393,49 @@
         <v>229.7065938790993</v>
       </c>
       <c r="K28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="L28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="M28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="N28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="O28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="P28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="Q28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="R28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="S28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="T28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="U28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="V28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="W28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="X28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="Y28" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2604.922907272603</v>
+        <v>2604.922907272605</v>
       </c>
       <c r="C29" t="n">
-        <v>2150.90818177463</v>
+        <v>2150.908181774632</v>
       </c>
       <c r="D29" t="n">
-        <v>1736.424186077812</v>
+        <v>1736.424186077814</v>
       </c>
       <c r="E29" t="n">
-        <v>1327.976418798147</v>
+        <v>1327.976418798149</v>
       </c>
       <c r="F29" t="n">
-        <v>918.996995860762</v>
+        <v>918.9969958607638</v>
       </c>
       <c r="G29" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375187</v>
       </c>
       <c r="H29" t="n">
         <v>143.117519933622</v>
@@ -6469,52 +6469,52 @@
         <v>142.72</v>
       </c>
       <c r="J29" t="n">
-        <v>860.2726437330556</v>
+        <v>142.72</v>
       </c>
       <c r="K29" t="n">
-        <v>860.2726437330556</v>
+        <v>852.4263663478685</v>
       </c>
       <c r="L29" t="n">
-        <v>1767.302138302678</v>
+        <v>1759.455860917491</v>
       </c>
       <c r="M29" t="n">
-        <v>2953.100634734744</v>
+        <v>2945.254357349557</v>
       </c>
       <c r="N29" t="n">
-        <v>3566.320954509507</v>
+        <v>4244.345736089041</v>
       </c>
       <c r="O29" t="n">
-        <v>4867.965301531017</v>
+        <v>5835.812941040226</v>
       </c>
       <c r="P29" t="n">
-        <v>6282.306354802172</v>
+        <v>6697.400904947333</v>
       </c>
       <c r="Q29" t="n">
         <v>7136</v>
       </c>
       <c r="R29" t="n">
-        <v>7128.947239365303</v>
+        <v>7128.947239365305</v>
       </c>
       <c r="S29" t="n">
-        <v>6718.471233248433</v>
+        <v>6718.471233248435</v>
       </c>
       <c r="T29" t="n">
-        <v>6143.037816527463</v>
+        <v>6143.037816527465</v>
       </c>
       <c r="U29" t="n">
-        <v>5487.572482269392</v>
+        <v>5487.572482269394</v>
       </c>
       <c r="V29" t="n">
-        <v>4851.359326545327</v>
+        <v>4851.359326545329</v>
       </c>
       <c r="W29" t="n">
-        <v>4206.537633635279</v>
+        <v>4206.537633635281</v>
       </c>
       <c r="X29" t="n">
-        <v>3608.27315539218</v>
+        <v>3608.273155392182</v>
       </c>
       <c r="Y29" t="n">
-        <v>3091.790900157022</v>
+        <v>3091.790900157024</v>
       </c>
     </row>
     <row r="30">
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>973.1507808172739</v>
+        <v>1201.986506748585</v>
       </c>
       <c r="C30" t="n">
-        <v>608.4033945086685</v>
+        <v>837.2391204399794</v>
       </c>
       <c r="D30" t="n">
-        <v>256.9511855210901</v>
+        <v>485.7869114524009</v>
       </c>
       <c r="E30" t="n">
-        <v>142.72</v>
+        <v>485.7869114524009</v>
       </c>
       <c r="F30" t="n">
         <v>142.72</v>
@@ -6581,19 +6581,19 @@
         <v>3044.559365624544</v>
       </c>
       <c r="U30" t="n">
-        <v>3044.559365624544</v>
+        <v>2884.954125246434</v>
       </c>
       <c r="V30" t="n">
-        <v>2625.861721996746</v>
+        <v>2466.256481618636</v>
       </c>
       <c r="W30" t="n">
-        <v>2189.12117360298</v>
+        <v>2029.51593322487</v>
       </c>
       <c r="X30" t="n">
-        <v>1765.017396385416</v>
+        <v>1605.412156007306</v>
       </c>
       <c r="Y30" t="n">
-        <v>1361.591747126695</v>
+        <v>1201.986506748585</v>
       </c>
     </row>
     <row r="31">
@@ -6603,22 +6603,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="C31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="D31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="E31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="F31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="H31" t="n">
         <v>142.72</v>
@@ -6627,52 +6627,52 @@
         <v>142.72</v>
       </c>
       <c r="J31" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="K31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="L31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="M31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="N31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="O31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="P31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="Q31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="R31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="S31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="T31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="U31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="V31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="W31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="X31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="Y31" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="32">
@@ -6685,19 +6685,19 @@
         <v>2604.922907272605</v>
       </c>
       <c r="C32" t="n">
-        <v>2150.908181774632</v>
+        <v>2150.908181774631</v>
       </c>
       <c r="D32" t="n">
-        <v>1736.424186077814</v>
+        <v>1736.424186077813</v>
       </c>
       <c r="E32" t="n">
-        <v>1327.976418798149</v>
+        <v>1327.976418798148</v>
       </c>
       <c r="F32" t="n">
-        <v>918.9969958607638</v>
+        <v>918.9969958607618</v>
       </c>
       <c r="G32" t="n">
-        <v>515.0831808375186</v>
+        <v>515.0831808375174</v>
       </c>
       <c r="H32" t="n">
         <v>143.117519933622</v>
@@ -6706,52 +6706,52 @@
         <v>142.72</v>
       </c>
       <c r="J32" t="n">
-        <v>534.0291130376557</v>
+        <v>142.72</v>
       </c>
       <c r="K32" t="n">
-        <v>1732.689961986976</v>
+        <v>142.72</v>
       </c>
       <c r="L32" t="n">
-        <v>3246.310728536619</v>
+        <v>1049.749494569622</v>
       </c>
       <c r="M32" t="n">
-        <v>3757.159557265554</v>
+        <v>1968.182786802633</v>
       </c>
       <c r="N32" t="n">
-        <v>4882.77039701827</v>
+        <v>3267.274165542116</v>
       </c>
       <c r="O32" t="n">
-        <v>5835.812941040226</v>
+        <v>4867.965301531018</v>
       </c>
       <c r="P32" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q32" t="n">
         <v>7136</v>
       </c>
       <c r="R32" t="n">
-        <v>7128.947239365305</v>
+        <v>7128.947239365304</v>
       </c>
       <c r="S32" t="n">
-        <v>6718.471233248435</v>
+        <v>6718.471233248434</v>
       </c>
       <c r="T32" t="n">
-        <v>6143.037816527465</v>
+        <v>6143.037816527464</v>
       </c>
       <c r="U32" t="n">
-        <v>5487.572482269394</v>
+        <v>5487.572482269393</v>
       </c>
       <c r="V32" t="n">
-        <v>4851.359326545329</v>
+        <v>4851.359326545328</v>
       </c>
       <c r="W32" t="n">
-        <v>4206.537633635281</v>
+        <v>4206.53763363528</v>
       </c>
       <c r="X32" t="n">
-        <v>3608.273155392182</v>
+        <v>3608.273155392181</v>
       </c>
       <c r="Y32" t="n">
-        <v>3091.790900157024</v>
+        <v>3091.790900157023</v>
       </c>
     </row>
     <row r="33">
@@ -6761,22 +6761,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>569.0359454130785</v>
+        <v>1474.108872319075</v>
       </c>
       <c r="C33" t="n">
-        <v>204.2885591044731</v>
+        <v>1474.108872319075</v>
       </c>
       <c r="D33" t="n">
-        <v>142.72</v>
+        <v>1474.108872319075</v>
       </c>
       <c r="E33" t="n">
-        <v>142.72</v>
+        <v>1127.975440781789</v>
       </c>
       <c r="F33" t="n">
-        <v>142.72</v>
+        <v>784.9085293293883</v>
       </c>
       <c r="G33" t="n">
-        <v>142.72</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="H33" t="n">
         <v>142.72</v>
@@ -6812,25 +6812,25 @@
         <v>3877.853327255624</v>
       </c>
       <c r="S33" t="n">
-        <v>3445.553591735139</v>
+        <v>3877.853327255624</v>
       </c>
       <c r="T33" t="n">
-        <v>3044.559365624544</v>
+        <v>3476.859101145029</v>
       </c>
       <c r="U33" t="n">
-        <v>2640.444530220348</v>
+        <v>3072.744265740833</v>
       </c>
       <c r="V33" t="n">
-        <v>2221.74688659255</v>
+        <v>2654.046622113035</v>
       </c>
       <c r="W33" t="n">
-        <v>1785.006338198784</v>
+        <v>2217.306073719269</v>
       </c>
       <c r="X33" t="n">
-        <v>1360.902560981221</v>
+        <v>1862.549838628496</v>
       </c>
       <c r="Y33" t="n">
-        <v>957.4769117224993</v>
+        <v>1862.549838628496</v>
       </c>
     </row>
     <row r="34">
@@ -6867,34 +6867,34 @@
         <v>229.7065938790994</v>
       </c>
       <c r="K34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="L34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="M34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="N34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="O34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="P34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Q34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="R34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="S34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="T34" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="U34" t="n">
         <v>142.72</v>
@@ -6946,22 +6946,22 @@
         <v>534.0291130376557</v>
       </c>
       <c r="K35" t="n">
-        <v>1732.689961986976</v>
+        <v>534.0291130376557</v>
       </c>
       <c r="L35" t="n">
-        <v>2639.719456556598</v>
+        <v>2047.649879587299</v>
       </c>
       <c r="M35" t="n">
-        <v>3150.568285285533</v>
+        <v>2183.780040924536</v>
       </c>
       <c r="N35" t="n">
-        <v>4449.659664025016</v>
+        <v>3482.871419664019</v>
       </c>
       <c r="O35" t="n">
-        <v>5402.702208046972</v>
+        <v>5083.562555652921</v>
       </c>
       <c r="P35" t="n">
-        <v>6697.400904947333</v>
+        <v>6497.903608924076</v>
       </c>
       <c r="Q35" t="n">
         <v>7136</v>
@@ -6998,19 +6998,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>569.0359454130785</v>
+        <v>858.9195952961838</v>
       </c>
       <c r="C36" t="n">
-        <v>469.6514249318435</v>
+        <v>494.1722089875785</v>
       </c>
       <c r="D36" t="n">
-        <v>469.6514249318435</v>
+        <v>142.72</v>
       </c>
       <c r="E36" t="n">
-        <v>469.6514249318435</v>
+        <v>142.72</v>
       </c>
       <c r="F36" t="n">
-        <v>469.6514249318435</v>
+        <v>142.72</v>
       </c>
       <c r="G36" t="n">
         <v>142.72</v>
@@ -7058,16 +7058,16 @@
         <v>2640.444530220348</v>
       </c>
       <c r="V36" t="n">
-        <v>2221.74688659255</v>
+        <v>2511.630536475656</v>
       </c>
       <c r="W36" t="n">
-        <v>1785.006338198784</v>
+        <v>2074.889988081889</v>
       </c>
       <c r="X36" t="n">
-        <v>1360.902560981221</v>
+        <v>1650.786210864326</v>
       </c>
       <c r="Y36" t="n">
-        <v>957.4769117224993</v>
+        <v>1247.360561605605</v>
       </c>
     </row>
     <row r="37">
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="C37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="D37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="E37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="F37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="H37" t="n">
         <v>142.72</v>
@@ -7104,49 +7104,49 @@
         <v>229.7065938790994</v>
       </c>
       <c r="K37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="L37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="M37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="N37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="O37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="P37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Q37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="R37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="S37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="T37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="U37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="V37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="W37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="X37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Y37" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="38">
@@ -7180,25 +7180,25 @@
         <v>142.72</v>
       </c>
       <c r="J38" t="n">
-        <v>534.0291130376557</v>
+        <v>142.72</v>
       </c>
       <c r="K38" t="n">
-        <v>1243.735479385524</v>
+        <v>631.6744826014517</v>
       </c>
       <c r="L38" t="n">
-        <v>2150.764973955147</v>
+        <v>2145.295249151095</v>
       </c>
       <c r="M38" t="n">
-        <v>2661.613802684082</v>
+        <v>3331.093745583161</v>
       </c>
       <c r="N38" t="n">
-        <v>3960.705181423565</v>
+        <v>4630.185124322645</v>
       </c>
       <c r="O38" t="n">
-        <v>4913.747725445522</v>
+        <v>6230.876260311547</v>
       </c>
       <c r="P38" t="n">
-        <v>6282.306354802173</v>
+        <v>7136</v>
       </c>
       <c r="Q38" t="n">
         <v>7136</v>
@@ -7235,25 +7235,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>616.7231430874517</v>
+        <v>858.9195952961838</v>
       </c>
       <c r="C39" t="n">
-        <v>616.7231430874517</v>
+        <v>494.1722089875785</v>
       </c>
       <c r="D39" t="n">
-        <v>616.7231430874517</v>
+        <v>142.72</v>
       </c>
       <c r="E39" t="n">
-        <v>616.7231430874517</v>
+        <v>142.72</v>
       </c>
       <c r="F39" t="n">
-        <v>616.7231430874517</v>
+        <v>142.72</v>
       </c>
       <c r="G39" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="H39" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="I39" t="n">
         <v>142.72</v>
@@ -7286,25 +7286,25 @@
         <v>3877.853327255624</v>
       </c>
       <c r="S39" t="n">
-        <v>3445.553591735139</v>
+        <v>3735.437241618245</v>
       </c>
       <c r="T39" t="n">
-        <v>3044.559365624544</v>
+        <v>3334.44301550765</v>
       </c>
       <c r="U39" t="n">
-        <v>2640.444530220348</v>
+        <v>2930.328180103454</v>
       </c>
       <c r="V39" t="n">
-        <v>2221.74688659255</v>
+        <v>2511.630536475656</v>
       </c>
       <c r="W39" t="n">
-        <v>1785.006338198784</v>
+        <v>2074.889988081889</v>
       </c>
       <c r="X39" t="n">
-        <v>1360.902560981221</v>
+        <v>1650.786210864326</v>
       </c>
       <c r="Y39" t="n">
-        <v>957.4769117224993</v>
+        <v>1247.360561605605</v>
       </c>
     </row>
     <row r="40">
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="C40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="D40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="E40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="F40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="H40" t="n">
         <v>142.72</v>
@@ -7341,49 +7341,49 @@
         <v>229.7065938790994</v>
       </c>
       <c r="K40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="L40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="M40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="N40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="O40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="P40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Q40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="R40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="S40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="T40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="U40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="V40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="W40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="X40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Y40" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="41">
@@ -7405,7 +7405,7 @@
         <v>1327.976418798148</v>
       </c>
       <c r="F41" t="n">
-        <v>918.9969958607618</v>
+        <v>918.996995860762</v>
       </c>
       <c r="G41" t="n">
         <v>515.0831808375174</v>
@@ -7420,49 +7420,49 @@
         <v>860.2726437330556</v>
       </c>
       <c r="K41" t="n">
-        <v>1613.047605616181</v>
+        <v>2058.933492682376</v>
       </c>
       <c r="L41" t="n">
-        <v>2520.077100185803</v>
+        <v>2665.524764662397</v>
       </c>
       <c r="M41" t="n">
-        <v>3030.925928914738</v>
+        <v>3851.323261094463</v>
       </c>
       <c r="N41" t="n">
-        <v>4330.017307654221</v>
+        <v>4289.862100442424</v>
       </c>
       <c r="O41" t="n">
-        <v>5283.059851676177</v>
+        <v>4867.965301531018</v>
       </c>
       <c r="P41" t="n">
-        <v>6697.400904947332</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q41" t="n">
         <v>7136</v>
       </c>
       <c r="R41" t="n">
-        <v>7128.947239365303</v>
+        <v>7128.947239365304</v>
       </c>
       <c r="S41" t="n">
-        <v>6718.471233248433</v>
+        <v>6718.471233248434</v>
       </c>
       <c r="T41" t="n">
-        <v>6143.037816527463</v>
+        <v>6143.037816527464</v>
       </c>
       <c r="U41" t="n">
-        <v>5487.572482269392</v>
+        <v>5487.572482269393</v>
       </c>
       <c r="V41" t="n">
-        <v>4851.359326545327</v>
+        <v>4851.359326545328</v>
       </c>
       <c r="W41" t="n">
-        <v>4206.537633635279</v>
+        <v>4206.53763363528</v>
       </c>
       <c r="X41" t="n">
-        <v>3608.27315539218</v>
+        <v>3608.273155392181</v>
       </c>
       <c r="Y41" t="n">
-        <v>3091.790900157022</v>
+        <v>3091.790900157023</v>
       </c>
     </row>
     <row r="42">
@@ -7472,25 +7472,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2337.380185770867</v>
+        <v>858.9195952961838</v>
       </c>
       <c r="C42" t="n">
-        <v>1972.632799462261</v>
+        <v>494.1722089875785</v>
       </c>
       <c r="D42" t="n">
-        <v>1621.180590474683</v>
+        <v>142.72</v>
       </c>
       <c r="E42" t="n">
-        <v>1275.047158937397</v>
+        <v>142.72</v>
       </c>
       <c r="F42" t="n">
-        <v>931.9802474849964</v>
+        <v>142.72</v>
       </c>
       <c r="G42" t="n">
-        <v>605.0488225531529</v>
+        <v>142.72</v>
       </c>
       <c r="H42" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="I42" t="n">
         <v>142.72</v>
@@ -7520,28 +7520,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R42" t="n">
-        <v>3972.04822218437</v>
+        <v>3877.853327255624</v>
       </c>
       <c r="S42" t="n">
-        <v>3972.04822218437</v>
+        <v>3445.553591735139</v>
       </c>
       <c r="T42" t="n">
-        <v>3972.04822218437</v>
+        <v>3044.559365624544</v>
       </c>
       <c r="U42" t="n">
-        <v>3972.04822218437</v>
+        <v>2640.444530220348</v>
       </c>
       <c r="V42" t="n">
-        <v>3553.350578556572</v>
+        <v>2221.74688659255</v>
       </c>
       <c r="W42" t="n">
-        <v>3553.350578556572</v>
+        <v>1785.006338198784</v>
       </c>
       <c r="X42" t="n">
-        <v>3129.246801339009</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="Y42" t="n">
-        <v>2725.821152080287</v>
+        <v>957.4769117224993</v>
       </c>
     </row>
     <row r="43">
@@ -7551,76 +7551,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="C43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="D43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="E43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="F43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="H43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="I43" t="n">
         <v>142.72</v>
       </c>
       <c r="J43" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="K43" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="L43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="M43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="N43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="O43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="P43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="Q43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="R43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="S43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="T43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="U43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="V43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="W43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="X43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="Y43" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="44">
@@ -7654,49 +7654,49 @@
         <v>142.72</v>
       </c>
       <c r="J44" t="n">
-        <v>534.0291130376557</v>
+        <v>142.72</v>
       </c>
       <c r="K44" t="n">
-        <v>1732.689961986976</v>
+        <v>1341.38084894932</v>
       </c>
       <c r="L44" t="n">
-        <v>2639.719456556598</v>
+        <v>2855.001615498963</v>
       </c>
       <c r="M44" t="n">
-        <v>3168.584468133624</v>
+        <v>3365.850444227899</v>
       </c>
       <c r="N44" t="n">
-        <v>4467.675846873108</v>
+        <v>4120.967810739944</v>
       </c>
       <c r="O44" t="n">
-        <v>5420.718390895065</v>
+        <v>5721.658946728846</v>
       </c>
       <c r="P44" t="n">
-        <v>6282.306354802172</v>
+        <v>7136</v>
       </c>
       <c r="Q44" t="n">
         <v>7136</v>
       </c>
       <c r="R44" t="n">
-        <v>7128.947239365303</v>
+        <v>7128.947239365304</v>
       </c>
       <c r="S44" t="n">
-        <v>6718.471233248433</v>
+        <v>6718.471233248434</v>
       </c>
       <c r="T44" t="n">
-        <v>6143.037816527463</v>
+        <v>6143.037816527464</v>
       </c>
       <c r="U44" t="n">
-        <v>5487.572482269392</v>
+        <v>5487.572482269393</v>
       </c>
       <c r="V44" t="n">
-        <v>4851.359326545327</v>
+        <v>4851.359326545328</v>
       </c>
       <c r="W44" t="n">
-        <v>4206.537633635279</v>
+        <v>4206.53763363528</v>
       </c>
       <c r="X44" t="n">
-        <v>3608.27315539218</v>
+        <v>3608.273155392181</v>
       </c>
       <c r="Y44" t="n">
         <v>3091.790900157023</v>
@@ -7709,22 +7709,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1863.377042683415</v>
+        <v>970.0301715236731</v>
       </c>
       <c r="C45" t="n">
-        <v>1498.62965637481</v>
+        <v>605.2827852150676</v>
       </c>
       <c r="D45" t="n">
-        <v>1147.177447387231</v>
+        <v>485.7869114524009</v>
       </c>
       <c r="E45" t="n">
-        <v>801.0440158499457</v>
+        <v>485.7869114524009</v>
       </c>
       <c r="F45" t="n">
-        <v>457.9771043975447</v>
+        <v>142.72</v>
       </c>
       <c r="G45" t="n">
-        <v>457.9771043975447</v>
+        <v>142.72</v>
       </c>
       <c r="H45" t="n">
         <v>142.72</v>
@@ -7757,28 +7757,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R45" t="n">
-        <v>4300.369696020461</v>
+        <v>3877.853327255624</v>
       </c>
       <c r="S45" t="n">
-        <v>4300.369696020461</v>
+        <v>3445.553591735139</v>
       </c>
       <c r="T45" t="n">
-        <v>3899.375469909866</v>
+        <v>3445.553591735139</v>
       </c>
       <c r="U45" t="n">
-        <v>3899.375469909866</v>
+        <v>3041.438756330943</v>
       </c>
       <c r="V45" t="n">
-        <v>3516.087983862887</v>
+        <v>2622.741112703145</v>
       </c>
       <c r="W45" t="n">
-        <v>3079.347435469121</v>
+        <v>2186.000564309379</v>
       </c>
       <c r="X45" t="n">
-        <v>2655.243658251557</v>
+        <v>1761.896787091815</v>
       </c>
       <c r="Y45" t="n">
-        <v>2251.818008992836</v>
+        <v>1358.471137833094</v>
       </c>
     </row>
     <row r="46">
@@ -7812,43 +7812,43 @@
         <v>142.72</v>
       </c>
       <c r="J46" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="K46" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="L46" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="M46" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="N46" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="O46" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="P46" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="Q46" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="R46" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="S46" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="T46" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="U46" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="V46" t="n">
-        <v>229.7065938790993</v>
+        <v>142.72</v>
       </c>
       <c r="W46" t="n">
         <v>142.72</v>
@@ -7996,13 +7996,13 @@
         <v>1060.271045550332</v>
       </c>
       <c r="N2" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1032.917105959907</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>870.5779326741233</v>
+        <v>181.80495722236</v>
       </c>
       <c r="Q2" t="n">
         <v>615.8520732695737</v>
@@ -8224,19 +8224,19 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230994</v>
+        <v>485.6031819020239</v>
       </c>
       <c r="L5" t="n">
         <v>916.1914086561842</v>
       </c>
       <c r="M5" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>1096.663422488788</v>
       </c>
       <c r="O5" t="n">
-        <v>1032.917105959907</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>870.5779326741233</v>
@@ -8458,13 +8458,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J8" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
-        <v>916.1914086561842</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>1060.271045550332</v>
@@ -8695,13 +8695,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L11" t="n">
-        <v>916.1914086561842</v>
+        <v>716.9328469447983</v>
       </c>
       <c r="M11" t="n">
         <v>1060.271045550332</v>
@@ -8932,7 +8932,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>716.8751175230994</v>
@@ -8953,7 +8953,7 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q14" t="n">
-        <v>615.8520732695737</v>
+        <v>499.9129819071521</v>
       </c>
       <c r="R14" t="n">
         <v>294.54111633436</v>
@@ -9175,10 +9175,10 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L17" t="n">
-        <v>916.1914086561842</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1060.271045550332</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N17" t="n">
         <v>1096.663422488788</v>
@@ -9406,7 +9406,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>716.8751175230994</v>
@@ -9421,7 +9421,7 @@
         <v>1096.663422488788</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1032.917105959907</v>
       </c>
       <c r="P20" t="n">
         <v>870.5779326741233</v>
@@ -9643,10 +9643,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
         <v>916.1914086561842</v>
@@ -9658,7 +9658,7 @@
         <v>1096.663422488788</v>
       </c>
       <c r="O23" t="n">
-        <v>1032.917105959907</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>870.5779326741233</v>
@@ -10117,10 +10117,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
-        <v>430.3047365861567</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L29" t="n">
         <v>916.1914086561842</v>
@@ -10354,10 +10354,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K32" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>916.1914086561842</v>
@@ -10594,13 +10594,13 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K35" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>916.1914086561842</v>
       </c>
       <c r="M35" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1096.663422488788</v>
@@ -10828,10 +10828,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>916.1914086561842</v>
@@ -10849,7 +10849,7 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R38" t="n">
         <v>294.54111633436</v>
@@ -11071,16 +11071,16 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
-        <v>916.1914086561842</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1060.271045550332</v>
       </c>
       <c r="N41" t="n">
-        <v>1096.663422488788</v>
+        <v>227.4184332044216</v>
       </c>
       <c r="O41" t="n">
-        <v>1032.917105959907</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>870.5779326741233</v>
@@ -11302,7 +11302,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
-        <v>430.3047365861567</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K44" t="n">
         <v>716.8751175230994</v>
@@ -11323,7 +11323,7 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q44" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23342,13 +23342,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>359.3148590511988</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C12" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>342.6720972219126</v>
@@ -23360,10 +23360,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>226.090367420473</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23448,7 +23448,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>86.17346579286669</v>
+        <v>0.05673785255832797</v>
       </c>
       <c r="L13" t="n">
         <v>164.6127396470317</v>
@@ -23484,7 +23484,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>140.2560818984014</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23582,13 +23582,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>211.3657055289987</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>339.6362423378769</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23645,7 +23645,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>268.5569981606678</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23685,7 +23685,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>86.17346579286669</v>
+        <v>0.05673785255832797</v>
       </c>
       <c r="L16" t="n">
         <v>164.6127396470317</v>
@@ -23718,7 +23718,7 @@
         <v>150.8633925383038</v>
       </c>
       <c r="V16" t="n">
-        <v>113.0535822759079</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
         <v>226.3728098387097</v>
@@ -23816,16 +23816,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>201.6801724409073</v>
       </c>
       <c r="C18" t="n">
-        <v>84.64812746062375</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>339.6362423378769</v>
@@ -23837,7 +23837,7 @@
         <v>312.1045333535693</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H19" t="n">
-        <v>127.1696041681886</v>
+        <v>213.286332108497</v>
       </c>
       <c r="I19" t="n">
         <v>124.2574857538132</v>
@@ -23922,7 +23922,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>86.17346579286669</v>
+        <v>0.05673785255832797</v>
       </c>
       <c r="L19" t="n">
         <v>164.6127396470317</v>
@@ -24053,28 +24053,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>361.0999124455193</v>
       </c>
       <c r="D21" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>314.3945447427492</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>268.5569981606679</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24153,13 +24153,13 @@
         <v>213.286332108497</v>
       </c>
       <c r="I22" t="n">
-        <v>38.14075781350486</v>
+        <v>124.2574857538132</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>86.17346579286669</v>
+        <v>0.05673785255832797</v>
       </c>
       <c r="L22" t="n">
         <v>164.6127396470317</v>
@@ -24290,28 +24290,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>220.5672164114966</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>229.5832235560335</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G24" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24344,16 +24344,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>396.9842838494889</v>
       </c>
       <c r="U24" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H25" t="n">
-        <v>127.1696041681886</v>
+        <v>213.286332108497</v>
       </c>
       <c r="I25" t="n">
         <v>124.2574857538132</v>
@@ -24396,7 +24396,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>86.17346579286669</v>
+        <v>0.05673785255832797</v>
       </c>
       <c r="L25" t="n">
         <v>164.6127396470317</v>
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>229.5832235560335</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>339.6362423378769</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>197.2837676963584</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H28" t="n">
-        <v>127.1696041681887</v>
+        <v>213.286332108497</v>
       </c>
       <c r="I28" t="n">
         <v>124.2574857538132</v>
@@ -24633,7 +24633,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>86.17346579286669</v>
+        <v>0.05673785255835639</v>
       </c>
       <c r="L28" t="n">
         <v>164.6127396470317</v>
@@ -24764,7 +24764,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>229.5832235560335</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F30" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>323.662110682525</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>400.0736870501537</v>
+        <v>242.0644990758248</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H31" t="n">
-        <v>127.1696041681887</v>
+        <v>213.286332108497</v>
       </c>
       <c r="I31" t="n">
         <v>124.2574857538132</v>
@@ -24870,7 +24870,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>86.17346579286669</v>
+        <v>0.05673785255832797</v>
       </c>
       <c r="L31" t="n">
         <v>164.6127396470317</v>
@@ -25004,22 +25004,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D33" t="n">
-        <v>286.9848133842743</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E33" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>145.6010009740521</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25067,10 +25067,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>68.65406670552244</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="34">
@@ -25107,7 +25107,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>86.17346579286669</v>
+        <v>0.05673785255832797</v>
       </c>
       <c r="L34" t="n">
         <v>164.6127396470317</v>
@@ -25137,7 +25137,7 @@
         <v>202.5829988408516</v>
       </c>
       <c r="U34" t="n">
-        <v>64.74666459799546</v>
+        <v>150.8633925383038</v>
       </c>
       <c r="V34" t="n">
         <v>199.1703102162162</v>
@@ -25241,10 +25241,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>262.7092371690967</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>342.6720972219126</v>
@@ -25253,7 +25253,7 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H36" t="n">
         <v>312.1045333535693</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>286.9848133842744</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H37" t="n">
-        <v>127.1696041681886</v>
+        <v>213.286332108497</v>
       </c>
       <c r="I37" t="n">
         <v>124.2574857538132</v>
@@ -25344,7 +25344,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>86.17346579286669</v>
+        <v>0.05673785255832797</v>
       </c>
       <c r="L37" t="n">
         <v>164.6127396470317</v>
@@ -25475,13 +25475,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>47.21032569762957</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>342.6720972219126</v>
@@ -25490,13 +25490,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H39" t="n">
         <v>312.1045333535693</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>286.9848133842746</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H40" t="n">
-        <v>127.1696041681886</v>
+        <v>213.286332108497</v>
       </c>
       <c r="I40" t="n">
         <v>124.2574857538132</v>
@@ -25581,7 +25581,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>86.17346579286669</v>
+        <v>0.05673785255832797</v>
       </c>
       <c r="L40" t="n">
         <v>164.6127396470317</v>
@@ -25712,7 +25712,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>286.9848133842743</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25721,19 +25721,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>93.25294597945901</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>396.9842838494889</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>432.3731429098285</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25812,7 +25812,7 @@
         <v>213.286332108497</v>
       </c>
       <c r="I43" t="n">
-        <v>38.14075781350489</v>
+        <v>124.2574857538132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25821,7 +25821,7 @@
         <v>86.17346579286669</v>
       </c>
       <c r="L43" t="n">
-        <v>164.6127396470317</v>
+        <v>78.49601170672337</v>
       </c>
       <c r="M43" t="n">
         <v>247.6210768183003</v>
@@ -25955,10 +25955,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>229.6367718726626</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25967,7 +25967,7 @@
         <v>323.662110682525</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I45" t="n">
         <v>145.6010009740521</v>
@@ -25997,19 +25997,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>396.9842838494889</v>
       </c>
       <c r="U45" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>35.05605600501121</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26055,7 +26055,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>86.17346579286669</v>
+        <v>0.05673785255832797</v>
       </c>
       <c r="L46" t="n">
         <v>164.6127396470317</v>
@@ -26091,7 +26091,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
-        <v>140.2560818984014</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X46" t="n">
         <v>247.4436454301076</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15961.27270175422</v>
+        <v>1353830.318357539</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31922.54540350844</v>
+        <v>2707660.636715078</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47883.81810526264</v>
+        <v>4061490.955072618</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67184.90268414964</v>
+        <v>5169275.347392689</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>86485.9872630366</v>
+        <v>6277059.739712758</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>105787.0718419236</v>
+        <v>7384844.132032827</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125088.1564208105</v>
+        <v>8492628.52435289</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>144389.2409996976</v>
+        <v>9600412.916672954</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>163690.3255785846</v>
+        <v>10708197.30899302</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>182991.4101574716</v>
+        <v>11815981.70131308</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>202292.4947363586</v>
+        <v>12923766.09363315</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>221593.5793152456</v>
+        <v>14031550.48595321</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>240894.6638941328</v>
+        <v>15139334.87827328</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>260195.7484730201</v>
+        <v>16247119.27059336</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>279496.8330519074</v>
+        <v>17354903.66291344</v>
       </c>
     </row>
   </sheetData>
@@ -26319,28 +26319,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850079.5022245019</v>
+        <v>850079.5022245022</v>
       </c>
       <c r="C2" t="n">
-        <v>850079.5022245019</v>
+        <v>850079.502224502</v>
       </c>
       <c r="D2" t="n">
-        <v>850079.5022245019</v>
+        <v>850079.5022245022</v>
       </c>
       <c r="E2" t="n">
-        <v>695585.5486660911</v>
+        <v>695585.5486660912</v>
       </c>
       <c r="F2" t="n">
+        <v>695585.5486660912</v>
+      </c>
+      <c r="G2" t="n">
         <v>695585.5486660914</v>
-      </c>
-      <c r="G2" t="n">
-        <v>695585.5486660913</v>
       </c>
       <c r="H2" t="n">
         <v>695585.5486660913</v>
       </c>
       <c r="I2" t="n">
-        <v>695585.5486660914</v>
+        <v>695585.5486660911</v>
       </c>
       <c r="J2" t="n">
         <v>695585.5486660914</v>
@@ -26349,19 +26349,19 @@
         <v>695585.5486660914</v>
       </c>
       <c r="L2" t="n">
+        <v>695585.5486660913</v>
+      </c>
+      <c r="M2" t="n">
+        <v>695585.5486660914</v>
+      </c>
+      <c r="N2" t="n">
+        <v>695585.5486660914</v>
+      </c>
+      <c r="O2" t="n">
+        <v>695585.5486660913</v>
+      </c>
+      <c r="P2" t="n">
         <v>695585.5486660912</v>
-      </c>
-      <c r="M2" t="n">
-        <v>695585.5486660913</v>
-      </c>
-      <c r="N2" t="n">
-        <v>695585.5486660913</v>
-      </c>
-      <c r="O2" t="n">
-        <v>695585.5486660912</v>
-      </c>
-      <c r="P2" t="n">
-        <v>695585.5486660911</v>
       </c>
     </row>
     <row r="3">
@@ -26432,13 +26432,13 @@
         <v>131325.2342200931</v>
       </c>
       <c r="E4" t="n">
-        <v>1113.692596006659</v>
+        <v>1113.692596006603</v>
       </c>
       <c r="F4" t="n">
-        <v>1113.692596006615</v>
+        <v>1113.692596006603</v>
       </c>
       <c r="G4" t="n">
-        <v>1113.692596006615</v>
+        <v>1113.69259600662</v>
       </c>
       <c r="H4" t="n">
         <v>1113.692596006615</v>
@@ -26447,25 +26447,25 @@
         <v>1113.692596006615</v>
       </c>
       <c r="J4" t="n">
-        <v>1113.692596006659</v>
+        <v>1113.692596006615</v>
       </c>
       <c r="K4" t="n">
         <v>1113.692596006615</v>
       </c>
       <c r="L4" t="n">
-        <v>1113.692596006615</v>
+        <v>1113.692596006605</v>
       </c>
       <c r="M4" t="n">
         <v>1113.692596006615</v>
       </c>
       <c r="N4" t="n">
-        <v>1113.69259600662</v>
+        <v>1113.692596006605</v>
       </c>
       <c r="O4" t="n">
-        <v>1113.692596006662</v>
+        <v>1113.692596006605</v>
       </c>
       <c r="P4" t="n">
-        <v>1113.692596006656</v>
+        <v>1113.692596006615</v>
       </c>
     </row>
     <row r="5">
@@ -26530,46 +26530,46 @@
         <v>-1015270.844785848</v>
       </c>
       <c r="C6" t="n">
-        <v>555073.5545624946</v>
+        <v>555073.5545624947</v>
       </c>
       <c r="D6" t="n">
-        <v>555600.6680044088</v>
+        <v>555600.6680044091</v>
       </c>
       <c r="E6" t="n">
-        <v>564945.8560700844</v>
+        <v>564945.8560700846</v>
       </c>
       <c r="F6" t="n">
+        <v>564945.8560700846</v>
+      </c>
+      <c r="G6" t="n">
         <v>564945.8560700847</v>
-      </c>
-      <c r="G6" t="n">
-        <v>564945.8560700846</v>
       </c>
       <c r="H6" t="n">
         <v>564945.8560700846</v>
       </c>
       <c r="I6" t="n">
-        <v>564945.8560700847</v>
+        <v>564945.8560700844</v>
       </c>
       <c r="J6" t="n">
-        <v>-63022.14392991515</v>
+        <v>-63022.14392991504</v>
       </c>
       <c r="K6" t="n">
         <v>564945.8560700847</v>
       </c>
       <c r="L6" t="n">
+        <v>564945.8560700847</v>
+      </c>
+      <c r="M6" t="n">
+        <v>564945.8560700847</v>
+      </c>
+      <c r="N6" t="n">
+        <v>564945.8560700848</v>
+      </c>
+      <c r="O6" t="n">
+        <v>564945.8560700847</v>
+      </c>
+      <c r="P6" t="n">
         <v>564945.8560700845</v>
-      </c>
-      <c r="M6" t="n">
-        <v>564945.8560700846</v>
-      </c>
-      <c r="N6" t="n">
-        <v>564945.8560700846</v>
-      </c>
-      <c r="O6" t="n">
-        <v>564945.8560700845</v>
-      </c>
-      <c r="P6" t="n">
-        <v>564945.8560700844</v>
       </c>
     </row>
   </sheetData>
@@ -27587,10 +27587,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27599,16 +27599,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
         <v>323.662110682525</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27638,10 +27638,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>229.6569106061876</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27650,13 +27650,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>281.9508254137047</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27690,19 +27690,19 @@
         <v>124.2574857538132</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>96.76501668363494</v>
       </c>
       <c r="K4" t="n">
         <v>86.17346579286669</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6127396470317</v>
+        <v>400</v>
       </c>
       <c r="M4" t="n">
         <v>247.6210768183003</v>
       </c>
       <c r="N4" t="n">
-        <v>304.6661209913</v>
+        <v>400</v>
       </c>
       <c r="O4" t="n">
         <v>394.2721724583043</v>
@@ -27726,16 +27726,16 @@
         <v>150.8633925383038</v>
       </c>
       <c r="V4" t="n">
-        <v>400</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W4" t="n">
-        <v>400</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X4" t="n">
         <v>247.4436454301076</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.4946289496914</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="5">
@@ -27833,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>339.6362423378769</v>
+        <v>85.02200968201015</v>
       </c>
       <c r="G6" t="n">
         <v>323.662110682525</v>
       </c>
       <c r="H6" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>145.6010009740521</v>
@@ -27878,22 +27878,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>396.9842838494889</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>286.9848133842744</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="7">
@@ -27903,7 +27903,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>400</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C7" t="n">
         <v>272.7252466480447</v>
@@ -27924,7 +27924,7 @@
         <v>213.286332108497</v>
       </c>
       <c r="I7" t="n">
-        <v>124.2574857538132</v>
+        <v>136.8554010415874</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27939,10 +27939,10 @@
         <v>247.6210768183003</v>
       </c>
       <c r="N7" t="n">
-        <v>304.6661209913</v>
+        <v>400</v>
       </c>
       <c r="O7" t="n">
-        <v>394.2721724583043</v>
+        <v>400</v>
       </c>
       <c r="P7" t="n">
         <v>400</v>
@@ -27972,7 +27972,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y7" t="n">
-        <v>288.2387750247109</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="8">
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>286.9848133842743</v>
       </c>
       <c r="E9" t="n">
         <v>342.6720972219126</v>
@@ -28121,7 +28121,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>286.9848133842744</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28167,19 +28167,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>278.2723614852016</v>
+        <v>260.2189921060746</v>
       </c>
       <c r="L10" t="n">
+        <v>164.6127396470317</v>
+      </c>
+      <c r="M10" t="n">
         <v>400</v>
       </c>
-      <c r="M10" t="n">
-        <v>247.6210768183003</v>
-      </c>
       <c r="N10" t="n">
-        <v>304.6661209913</v>
+        <v>400</v>
       </c>
       <c r="O10" t="n">
-        <v>394.2721724583043</v>
+        <v>400</v>
       </c>
       <c r="P10" t="n">
         <v>400</v>
@@ -31180,28 +31180,28 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K2" t="n">
         <v>493.8934167691431</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>612.7184565454758</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>681.7673411142738</v>
       </c>
       <c r="N2" t="n">
-        <v>571.9481844383079</v>
+        <v>692.7990494593133</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P2" t="n">
         <v>558.3364539030787</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R2" t="n">
         <v>243.8963657999445</v>
@@ -31417,13 +31417,13 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K5" t="n">
-        <v>249.6116645369418</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>612.7184565454758</v>
       </c>
       <c r="M5" t="n">
         <v>681.7673411142738</v>
@@ -31432,13 +31432,13 @@
         <v>692.7990494593133</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>558.3364539030787</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R5" t="n">
         <v>243.8963657999445</v>
@@ -31654,28 +31654,28 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>348.5378526948069</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>681.7673411142738</v>
       </c>
       <c r="N8" t="n">
-        <v>646.5541768184003</v>
+        <v>692.7990494593133</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P8" t="n">
         <v>558.3364539030787</v>
       </c>
       <c r="Q8" t="n">
-        <v>419.2874243890514</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>243.8963657999445</v>
@@ -31891,25 +31891,25 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J11" t="n">
-        <v>329.5389198943433</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>493.8934167691431</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>612.7184565454758</v>
       </c>
       <c r="M11" t="n">
-        <v>681.7673411142738</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>692.7990494593133</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>193.5843697128618</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>419.2874243890514</v>
@@ -32128,10 +32128,10 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>493.8934167691431</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -32146,7 +32146,7 @@
         <v>654.1904969363086</v>
       </c>
       <c r="P14" t="n">
-        <v>277.1885087149068</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -32365,25 +32365,25 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>44.44050806141053</v>
       </c>
       <c r="K17" t="n">
-        <v>329.6922574507814</v>
+        <v>493.8934167691431</v>
       </c>
       <c r="L17" t="n">
         <v>612.7184565454758</v>
       </c>
       <c r="M17" t="n">
-        <v>681.7673411142738</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>692.7990494593133</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>558.3364539030787</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -32602,22 +32602,22 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>493.8934167691431</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>332.4817363826858</v>
+        <v>547.9224903903242</v>
       </c>
       <c r="N20" t="n">
-        <v>692.7990494593133</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>654.1904969363086</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>558.3364539030787</v>
@@ -32845,13 +32845,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>612.7184565454758</v>
       </c>
       <c r="M23" t="n">
-        <v>16.43974794587814</v>
+        <v>681.7673411142738</v>
       </c>
       <c r="N23" t="n">
-        <v>692.7990494593133</v>
+        <v>545.3441429123675</v>
       </c>
       <c r="O23" t="n">
         <v>654.1904969363086</v>
@@ -32860,7 +32860,7 @@
         <v>558.3364539030787</v>
       </c>
       <c r="Q23" t="n">
-        <v>419.2874243890514</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>243.8963657999445</v>
@@ -33076,7 +33076,7 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J26" t="n">
-        <v>329.5389198943433</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -33085,19 +33085,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>681.7673411142738</v>
+        <v>16.43974794587723</v>
       </c>
       <c r="N26" t="n">
         <v>692.7990494593133</v>
       </c>
       <c r="O26" t="n">
-        <v>636.947862165699</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>558.3364539030787</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R26" t="n">
         <v>243.8963657999445</v>
@@ -33313,7 +33313,7 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J29" t="n">
-        <v>329.5389198943433</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -33325,16 +33325,16 @@
         <v>681.7673411142738</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>692.7990494593133</v>
       </c>
       <c r="O29" t="n">
-        <v>352.1230333328822</v>
+        <v>644.8733948780091</v>
       </c>
       <c r="P29" t="n">
-        <v>558.3364539030787</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>419.2874243890514</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>243.8963657999445</v>
@@ -33553,25 +33553,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>612.7184565454758</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>411.7014782869446</v>
       </c>
       <c r="N32" t="n">
-        <v>517.5661817959119</v>
+        <v>692.7990494593133</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>558.3364539030787</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R32" t="n">
         <v>243.8963657999445</v>
@@ -33790,25 +33790,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>612.7184565454758</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>681.7673411142738</v>
       </c>
       <c r="N35" t="n">
         <v>692.7990494593133</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P35" t="n">
-        <v>437.4855888820745</v>
+        <v>558.3364539030787</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>201.5124202255124</v>
       </c>
       <c r="R35" t="n">
         <v>243.8963657999445</v>
@@ -34024,28 +34024,28 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>493.8934167691431</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>612.7184565454758</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>681.7673411142738</v>
       </c>
       <c r="N38" t="n">
         <v>692.7990494593133</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P38" t="n">
-        <v>512.0915812621655</v>
+        <v>43.97553109226965</v>
       </c>
       <c r="Q38" t="n">
-        <v>419.2874243890514</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>243.8963657999445</v>
@@ -34264,25 +34264,25 @@
         <v>329.5389198943433</v>
       </c>
       <c r="K41" t="n">
-        <v>43.50363185379456</v>
+        <v>493.8934167691431</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>612.7184565454758</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>681.7673411142738</v>
       </c>
       <c r="N41" t="n">
         <v>692.7990494593133</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P41" t="n">
         <v>558.3364539030787</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R41" t="n">
         <v>243.8963657999445</v>
@@ -34504,22 +34504,22 @@
         <v>493.8934167691431</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>612.7184565454758</v>
       </c>
       <c r="M44" t="n">
-        <v>18.19816449302175</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>692.7990494593133</v>
+        <v>143.330350239679</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>558.3364539030787</v>
       </c>
       <c r="Q44" t="n">
-        <v>419.2874243890514</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R44" t="n">
         <v>243.8963657999445</v>
@@ -34828,28 +34828,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K2" t="n">
         <v>1210.768534292243</v>
       </c>
       <c r="L2" t="n">
-        <v>916.1914086561844</v>
+        <v>1528.90986520166</v>
       </c>
       <c r="M2" t="n">
-        <v>516.0089179080152</v>
+        <v>1197.776259022289</v>
       </c>
       <c r="N2" t="n">
-        <v>1191.362648857261</v>
+        <v>215.5500913894781</v>
       </c>
       <c r="O2" t="n">
-        <v>962.6692363858147</v>
+        <v>583.9426273622162</v>
       </c>
       <c r="P2" t="n">
-        <v>1428.627326536521</v>
+        <v>739.8543510847572</v>
       </c>
       <c r="Q2" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34986,19 +34986,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.86524634252459</v>
+        <v>184.6302630261595</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>235.3872603529683</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>95.33387900869997</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -35022,16 +35022,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>200.8296897837838</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>173.6271901612903</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.0292761002291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -35065,28 +35065,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K5" t="n">
-        <v>966.4867820600413</v>
+        <v>485.6031819020239</v>
       </c>
       <c r="L5" t="n">
-        <v>916.1914086561842</v>
+        <v>1528.90986520166</v>
       </c>
       <c r="M5" t="n">
-        <v>1197.776259022289</v>
+        <v>137.5052134719565</v>
       </c>
       <c r="N5" t="n">
         <v>1312.213513878266</v>
       </c>
       <c r="O5" t="n">
-        <v>962.6692363858147</v>
+        <v>583.9426273622162</v>
       </c>
       <c r="P5" t="n">
-        <v>870.2908726334418</v>
+        <v>1428.627326536521</v>
       </c>
       <c r="Q5" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35199,7 +35199,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.8861996629213</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -35220,7 +35220,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>12.59791528777422</v>
       </c>
       <c r="J7" t="n">
         <v>87.86524634252459</v>
@@ -35235,10 +35235,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>95.33387900869997</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>5.727827541695717</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35268,7 +35268,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7734221752485263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -35302,28 +35302,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.2617303410664</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>716.8751175230994</v>
+        <v>1065.412970217906</v>
       </c>
       <c r="L8" t="n">
-        <v>916.1914086561844</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>516.0089179080152</v>
+        <v>1197.776259022289</v>
       </c>
       <c r="N8" t="n">
-        <v>1265.968641237353</v>
+        <v>1312.213513878266</v>
       </c>
       <c r="O8" t="n">
-        <v>962.6692363858147</v>
+        <v>1616.859733322123</v>
       </c>
       <c r="P8" t="n">
         <v>1428.627326536521</v>
       </c>
       <c r="Q8" t="n">
-        <v>862.3168133311397</v>
+        <v>443.0293889420883</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35463,19 +35463,19 @@
         <v>87.86524634252459</v>
       </c>
       <c r="K10" t="n">
-        <v>192.0988956923349</v>
+        <v>174.0455263132078</v>
       </c>
       <c r="L10" t="n">
-        <v>235.3872603529683</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>152.3789231816997</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>95.33387900869997</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.727827541695717</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35539,25 +35539,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>724.8006502354096</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>716.8751175230994</v>
+        <v>1210.768534292243</v>
       </c>
       <c r="L11" t="n">
-        <v>916.1914086561842</v>
+        <v>1329.651303490274</v>
       </c>
       <c r="M11" t="n">
-        <v>1197.776259022289</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N11" t="n">
-        <v>619.4144644189528</v>
+        <v>1312.213513878266</v>
       </c>
       <c r="O11" t="n">
         <v>962.6692363858147</v>
       </c>
       <c r="P11" t="n">
-        <v>1063.875242346304</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q11" t="n">
         <v>862.3168133311397</v>
@@ -35776,10 +35776,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.2617303410664</v>
+        <v>294.4959136492529</v>
       </c>
       <c r="K14" t="n">
-        <v>716.8751175230994</v>
+        <v>1210.768534292243</v>
       </c>
       <c r="L14" t="n">
         <v>916.1914086561844</v>
@@ -35794,10 +35794,10 @@
         <v>1616.859733322123</v>
       </c>
       <c r="P14" t="n">
-        <v>1147.479381348349</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q14" t="n">
-        <v>443.0293889420883</v>
+        <v>327.0902975796667</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -36013,25 +36013,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.2617303410664</v>
+        <v>439.7022384024769</v>
       </c>
       <c r="K17" t="n">
-        <v>1046.567374973881</v>
+        <v>1210.768534292243</v>
       </c>
       <c r="L17" t="n">
-        <v>1528.90986520166</v>
+        <v>612.7184565454759</v>
       </c>
       <c r="M17" t="n">
-        <v>1197.776259022289</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>619.4144644189528</v>
+        <v>1312.213513878266</v>
       </c>
       <c r="O17" t="n">
-        <v>962.6692363858147</v>
+        <v>1616.859733322123</v>
       </c>
       <c r="P17" t="n">
-        <v>870.2908726334418</v>
+        <v>1428.627326536521</v>
       </c>
       <c r="Q17" t="n">
         <v>443.0293889420883</v>
@@ -36250,22 +36250,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.2617303410664</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>716.8751175230994</v>
+        <v>1210.768534292243</v>
       </c>
       <c r="L20" t="n">
-        <v>916.1914086561844</v>
+        <v>916.191408656184</v>
       </c>
       <c r="M20" t="n">
-        <v>848.4906542907009</v>
+        <v>1063.931408298339</v>
       </c>
       <c r="N20" t="n">
-        <v>1312.213513878266</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O20" t="n">
-        <v>583.9426273622162</v>
+        <v>962.6692363858147</v>
       </c>
       <c r="P20" t="n">
         <v>1428.627326536521</v>
@@ -36487,28 +36487,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.2617303410664</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
-        <v>916.1914086561843</v>
+        <v>1528.90986520166</v>
       </c>
       <c r="M23" t="n">
-        <v>532.4486658538933</v>
+        <v>1197.776259022289</v>
       </c>
       <c r="N23" t="n">
-        <v>1312.213513878266</v>
+        <v>1164.75860733132</v>
       </c>
       <c r="O23" t="n">
-        <v>1616.859733322123</v>
+        <v>583.9426273622162</v>
       </c>
       <c r="P23" t="n">
         <v>1428.627326536521</v>
       </c>
       <c r="Q23" t="n">
-        <v>862.3168133311397</v>
+        <v>443.0293889420883</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36724,28 +36724,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>724.8006502354096</v>
+        <v>395.2617303410664</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>916.1914086561841</v>
+        <v>916.1914086561843</v>
       </c>
       <c r="M26" t="n">
-        <v>1197.776259022289</v>
+        <v>532.4486658538924</v>
       </c>
       <c r="N26" t="n">
         <v>1312.213513878266</v>
       </c>
       <c r="O26" t="n">
-        <v>1599.617098551514</v>
+        <v>1616.859733322123</v>
       </c>
       <c r="P26" t="n">
-        <v>870.2908726334418</v>
+        <v>1428.627326536521</v>
       </c>
       <c r="Q26" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36961,28 +36961,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>724.8006502354096</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L29" t="n">
-        <v>916.1914086561841</v>
+        <v>916.1914086561843</v>
       </c>
       <c r="M29" t="n">
         <v>1197.776259022289</v>
       </c>
       <c r="N29" t="n">
-        <v>619.4144644189528</v>
+        <v>1312.213513878266</v>
       </c>
       <c r="O29" t="n">
-        <v>1314.792269718697</v>
+        <v>1607.542631263824</v>
       </c>
       <c r="P29" t="n">
-        <v>1428.627326536521</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q29" t="n">
-        <v>862.3168133311397</v>
+        <v>443.0293889420883</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37198,28 +37198,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.2617303410664</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1210.768534292242</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1528.90986520166</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M32" t="n">
-        <v>516.0089179080152</v>
+        <v>927.7103961949598</v>
       </c>
       <c r="N32" t="n">
-        <v>1136.980646214865</v>
+        <v>1312.213513878266</v>
       </c>
       <c r="O32" t="n">
-        <v>962.6692363858147</v>
+        <v>1616.859733322123</v>
       </c>
       <c r="P32" t="n">
-        <v>870.2908726334418</v>
+        <v>1428.627326536521</v>
       </c>
       <c r="Q32" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37438,25 +37438,25 @@
         <v>395.2617303410664</v>
       </c>
       <c r="K35" t="n">
-        <v>1210.768534292242</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>916.1914086561842</v>
+        <v>1528.90986520166</v>
       </c>
       <c r="M35" t="n">
-        <v>516.0089179080152</v>
+        <v>137.5052134719565</v>
       </c>
       <c r="N35" t="n">
         <v>1312.213513878266</v>
       </c>
       <c r="O35" t="n">
-        <v>962.6692363858147</v>
+        <v>1616.859733322123</v>
       </c>
       <c r="P35" t="n">
-        <v>1307.776461515516</v>
+        <v>1428.627326536521</v>
       </c>
       <c r="Q35" t="n">
-        <v>443.0293889420883</v>
+        <v>644.5418091676007</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37672,28 +37672,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.2617303410664</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>716.8751175230994</v>
+        <v>493.8934167691432</v>
       </c>
       <c r="L38" t="n">
-        <v>916.1914086561844</v>
+        <v>1528.90986520166</v>
       </c>
       <c r="M38" t="n">
-        <v>516.0089179080152</v>
+        <v>1197.776259022289</v>
       </c>
       <c r="N38" t="n">
         <v>1312.213513878266</v>
       </c>
       <c r="O38" t="n">
-        <v>962.6692363858147</v>
+        <v>1616.859733322123</v>
       </c>
       <c r="P38" t="n">
-        <v>1382.382453895607</v>
+        <v>914.2664037257115</v>
       </c>
       <c r="Q38" t="n">
-        <v>862.3168133311397</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37912,25 +37912,25 @@
         <v>724.8006502354096</v>
       </c>
       <c r="K41" t="n">
-        <v>760.378749376894</v>
+        <v>1210.768534292243</v>
       </c>
       <c r="L41" t="n">
-        <v>916.1914086561842</v>
+        <v>612.7184565454763</v>
       </c>
       <c r="M41" t="n">
-        <v>516.0089179080152</v>
+        <v>1197.776259022289</v>
       </c>
       <c r="N41" t="n">
-        <v>1312.213513878266</v>
+        <v>442.9685245938997</v>
       </c>
       <c r="O41" t="n">
-        <v>962.6692363858147</v>
+        <v>583.9426273622162</v>
       </c>
       <c r="P41" t="n">
         <v>1428.627326536521</v>
       </c>
       <c r="Q41" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38146,28 +38146,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.2617303410664</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1210.768534292242</v>
+        <v>1210.768534292243</v>
       </c>
       <c r="L44" t="n">
-        <v>916.1914086561842</v>
+        <v>1528.90986520166</v>
       </c>
       <c r="M44" t="n">
-        <v>534.2070824010369</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N44" t="n">
-        <v>1312.213513878266</v>
+        <v>762.7448146586318</v>
       </c>
       <c r="O44" t="n">
-        <v>962.6692363858147</v>
+        <v>1616.859733322123</v>
       </c>
       <c r="P44" t="n">
-        <v>870.2908726334418</v>
+        <v>1428.627326536521</v>
       </c>
       <c r="Q44" t="n">
-        <v>862.3168133311397</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
